--- a/Resultados2.xlsx
+++ b/Resultados2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>9999997</v>
+        <v>9999996</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>9999996</v>
+        <v>9999995</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>9999993</v>
+        <v>9999994</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>9999992</v>
+        <v>9999991</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>9999991</v>
+        <v>9999989</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>9999991</v>
+        <v>9999988</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>9999988</v>
+        <v>9999986</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>9999988</v>
+        <v>9999985</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>9999987</v>
+        <v>9999982</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>9999986</v>
+        <v>9999980</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>9999983</v>
+        <v>9999980</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>9999983</v>
+        <v>9999977</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>9999982</v>
+        <v>9999973</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +797,16 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>9999981</v>
+        <v>9999970</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +817,16 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>9999980</v>
+        <v>9999966</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -837,16 +837,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>9999977</v>
+        <v>9999964</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>9999974</v>
+        <v>9999961</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>9999972</v>
+        <v>9999955</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>9999969</v>
+        <v>9999950</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -917,16 +917,16 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>9999968</v>
+        <v>9999945</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -937,16 +937,16 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>9999965</v>
+        <v>9999940</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -957,16 +957,16 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>9999959</v>
+        <v>9999938</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -977,16 +977,16 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>9999957</v>
+        <v>9999931</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -997,16 +997,16 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>9999953</v>
+        <v>9999929</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1017,16 +1017,16 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>9999946</v>
+        <v>9999922</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1037,16 +1037,16 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>9999944</v>
+        <v>9999915</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1057,16 +1057,16 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>9999937</v>
+        <v>9999904</v>
       </c>
       <c r="E34">
         <v>18</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1077,16 +1077,16 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>9999933</v>
+        <v>9999900</v>
       </c>
       <c r="E35">
         <v>19</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1097,16 +1097,16 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>9999924</v>
+        <v>9999893</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1117,16 +1117,16 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D37">
-        <v>9999918</v>
+        <v>9999887</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1137,16 +1137,16 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D38">
-        <v>9999912</v>
+        <v>9999882</v>
       </c>
       <c r="E38">
         <v>27</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1157,16 +1157,16 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D39">
-        <v>9999905</v>
+        <v>9999877</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1177,16 +1177,16 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>9999891</v>
+        <v>9999868</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1197,16 +1197,16 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D41">
-        <v>9999886</v>
+        <v>9999859</v>
       </c>
       <c r="E41">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1217,16 +1217,16 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D42">
-        <v>9999876</v>
+        <v>9999848</v>
       </c>
       <c r="E42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1237,16 +1237,16 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>9999864</v>
+        <v>9999833</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1257,16 +1257,16 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D44">
-        <v>9999850</v>
+        <v>9999822</v>
       </c>
       <c r="E44">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1277,16 +1277,16 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D45">
-        <v>9999837</v>
+        <v>9999807</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1297,16 +1297,16 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D46">
-        <v>9999816</v>
+        <v>9999790</v>
       </c>
       <c r="E46">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1317,16 +1317,16 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D47">
-        <v>9999803</v>
+        <v>9999780</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D48">
-        <v>9999788</v>
+        <v>9999770</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1357,16 +1357,16 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D49">
-        <v>9999767</v>
+        <v>9999747</v>
       </c>
       <c r="E49">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1377,16 +1377,16 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D50">
-        <v>9999755</v>
+        <v>9999726</v>
       </c>
       <c r="E50">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1397,16 +1397,16 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D51">
-        <v>9999729</v>
+        <v>9999706</v>
       </c>
       <c r="E51">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1417,16 +1417,16 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D52">
-        <v>9999704</v>
+        <v>9999688</v>
       </c>
       <c r="E52">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1437,16 +1437,16 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D53">
-        <v>9999684</v>
+        <v>9999662</v>
       </c>
       <c r="E53">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1457,16 +1457,16 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D54">
-        <v>9999665</v>
+        <v>9999640</v>
       </c>
       <c r="E54">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1477,16 +1477,16 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="D55">
-        <v>9999644</v>
+        <v>9999613</v>
       </c>
       <c r="E55">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1497,16 +1497,16 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D56">
-        <v>9999617</v>
+        <v>9999584</v>
       </c>
       <c r="E56">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1517,16 +1517,16 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="D57">
-        <v>9999593</v>
+        <v>9999543</v>
       </c>
       <c r="E57">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1537,16 +1537,16 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="D58">
-        <v>9999569</v>
+        <v>9999512</v>
       </c>
       <c r="E58">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1557,16 +1557,16 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="D59">
-        <v>9999535</v>
+        <v>9999468</v>
       </c>
       <c r="E59">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1577,16 +1577,16 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="D60">
-        <v>9999509</v>
+        <v>9999434</v>
       </c>
       <c r="E60">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1597,16 +1597,16 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="D61">
-        <v>9999465</v>
+        <v>9999380</v>
       </c>
       <c r="E61">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1617,16 +1617,16 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="D62">
-        <v>9999423</v>
+        <v>9999341</v>
       </c>
       <c r="E62">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1637,16 +1637,16 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="D63">
-        <v>9999386</v>
+        <v>9999284</v>
       </c>
       <c r="E63">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1657,16 +1657,16 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>391</v>
+        <v>541</v>
       </c>
       <c r="D64">
-        <v>9999338</v>
+        <v>9999229</v>
       </c>
       <c r="E64">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1677,16 +1677,16 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="D65">
-        <v>9999290</v>
+        <v>9999159</v>
       </c>
       <c r="E65">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1697,16 +1697,16 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>435</v>
+        <v>620</v>
       </c>
       <c r="D66">
-        <v>9999249</v>
+        <v>9999106</v>
       </c>
       <c r="E66">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1717,16 +1717,16 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>485</v>
+        <v>667</v>
       </c>
       <c r="D67">
-        <v>9999180</v>
+        <v>9999039</v>
       </c>
       <c r="E67">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1737,16 +1737,16 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>515</v>
+        <v>724</v>
       </c>
       <c r="D68">
-        <v>9999129</v>
+        <v>9998964</v>
       </c>
       <c r="E68">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="F68">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1757,16 +1757,16 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>551</v>
+        <v>785</v>
       </c>
       <c r="D69">
-        <v>9999066</v>
+        <v>9998877</v>
       </c>
       <c r="E69">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="F69">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1777,16 +1777,16 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>590</v>
+        <v>849</v>
       </c>
       <c r="D70">
-        <v>9999003</v>
+        <v>9998791</v>
       </c>
       <c r="E70">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="F70">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1797,16 +1797,16 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>640</v>
+        <v>918</v>
       </c>
       <c r="D71">
-        <v>9998929</v>
+        <v>9998695</v>
       </c>
       <c r="E71">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="F71">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1817,16 +1817,16 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>703</v>
+        <v>987</v>
       </c>
       <c r="D72">
-        <v>9998832</v>
+        <v>9998597</v>
       </c>
       <c r="E72">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="F72">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1837,16 +1837,16 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>763</v>
+        <v>1049</v>
       </c>
       <c r="D73">
-        <v>9998746</v>
+        <v>9998494</v>
       </c>
       <c r="E73">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="F73">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1857,16 +1857,16 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>805</v>
+        <v>1130</v>
       </c>
       <c r="D74">
-        <v>9998660</v>
+        <v>9998382</v>
       </c>
       <c r="E74">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="F74">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1877,16 +1877,16 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>865</v>
+        <v>1217</v>
       </c>
       <c r="D75">
-        <v>9998558</v>
+        <v>9998251</v>
       </c>
       <c r="E75">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="F75">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1897,16 +1897,16 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>925</v>
+        <v>1316</v>
       </c>
       <c r="D76">
-        <v>9998461</v>
+        <v>9998118</v>
       </c>
       <c r="E76">
-        <v>581</v>
+        <v>518</v>
       </c>
       <c r="F76">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1917,16 +1917,16 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>985</v>
+        <v>1435</v>
       </c>
       <c r="D77">
-        <v>9998353</v>
+        <v>9997945</v>
       </c>
       <c r="E77">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="F77">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1937,16 +1937,16 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1073</v>
+        <v>1563</v>
       </c>
       <c r="D78">
-        <v>9998217</v>
+        <v>9997778</v>
       </c>
       <c r="E78">
-        <v>671</v>
+        <v>596</v>
       </c>
       <c r="F78">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1957,16 +1957,16 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1183</v>
+        <v>1681</v>
       </c>
       <c r="D79">
-        <v>9998066</v>
+        <v>9997603</v>
       </c>
       <c r="E79">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="F79">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1977,16 +1977,16 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1234</v>
+        <v>1809</v>
       </c>
       <c r="D80">
-        <v>9997946</v>
+        <v>9997420</v>
       </c>
       <c r="E80">
-        <v>771</v>
+        <v>694</v>
       </c>
       <c r="F80">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1997,16 +1997,16 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1342</v>
+        <v>1954</v>
       </c>
       <c r="D81">
-        <v>9997787</v>
+        <v>9997205</v>
       </c>
       <c r="E81">
-        <v>821</v>
+        <v>755</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2017,16 +2017,16 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>1457</v>
+        <v>2102</v>
       </c>
       <c r="D82">
-        <v>9997609</v>
+        <v>9997004</v>
       </c>
       <c r="E82">
-        <v>879</v>
+        <v>802</v>
       </c>
       <c r="F82">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2037,16 +2037,16 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>1577</v>
+        <v>2269</v>
       </c>
       <c r="D83">
-        <v>9997426</v>
+        <v>9996770</v>
       </c>
       <c r="E83">
-        <v>939</v>
+        <v>868</v>
       </c>
       <c r="F83">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2057,16 +2057,16 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>1694</v>
+        <v>2450</v>
       </c>
       <c r="D84">
-        <v>9997235</v>
+        <v>9996514</v>
       </c>
       <c r="E84">
-        <v>1007</v>
+        <v>934</v>
       </c>
       <c r="F84">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2077,16 +2077,16 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>1793</v>
+        <v>2648</v>
       </c>
       <c r="D85">
-        <v>9997039</v>
+        <v>9996229</v>
       </c>
       <c r="E85">
-        <v>1101</v>
+        <v>1018</v>
       </c>
       <c r="F85">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2097,16 +2097,16 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>1925</v>
+        <v>2867</v>
       </c>
       <c r="D86">
-        <v>9996821</v>
+        <v>9995924</v>
       </c>
       <c r="E86">
-        <v>1182</v>
+        <v>1095</v>
       </c>
       <c r="F86">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2117,16 +2117,16 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>2036</v>
+        <v>3117</v>
       </c>
       <c r="D87">
-        <v>9996624</v>
+        <v>9995578</v>
       </c>
       <c r="E87">
-        <v>1266</v>
+        <v>1181</v>
       </c>
       <c r="F87">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2137,16 +2137,16 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>2180</v>
+        <v>3393</v>
       </c>
       <c r="D88">
-        <v>9996378</v>
+        <v>9995204</v>
       </c>
       <c r="E88">
-        <v>1363</v>
+        <v>1270</v>
       </c>
       <c r="F88">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2157,16 +2157,16 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>2354</v>
+        <v>3692</v>
       </c>
       <c r="D89">
-        <v>9996107</v>
+        <v>9994802</v>
       </c>
       <c r="E89">
-        <v>1455</v>
+        <v>1367</v>
       </c>
       <c r="F89">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2177,16 +2177,16 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>2514</v>
+        <v>4018</v>
       </c>
       <c r="D90">
-        <v>9995839</v>
+        <v>9994364</v>
       </c>
       <c r="E90">
-        <v>1559</v>
+        <v>1473</v>
       </c>
       <c r="F90">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2197,16 +2197,16 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>2653</v>
+        <v>4349</v>
       </c>
       <c r="D91">
-        <v>9995564</v>
+        <v>9993902</v>
       </c>
       <c r="E91">
-        <v>1688</v>
+        <v>1595</v>
       </c>
       <c r="F91">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2217,16 +2217,16 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>2809</v>
+        <v>4711</v>
       </c>
       <c r="D92">
-        <v>9995257</v>
+        <v>9993407</v>
       </c>
       <c r="E92">
-        <v>1831</v>
+        <v>1714</v>
       </c>
       <c r="F92">
-        <v>103</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2237,16 +2237,16 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>3028</v>
+        <v>5072</v>
       </c>
       <c r="D93">
-        <v>9994918</v>
+        <v>9992873</v>
       </c>
       <c r="E93">
-        <v>1947</v>
+        <v>1863</v>
       </c>
       <c r="F93">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2257,16 +2257,16 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>3229</v>
+        <v>5438</v>
       </c>
       <c r="D94">
-        <v>9994558</v>
+        <v>9992340</v>
       </c>
       <c r="E94">
-        <v>2097</v>
+        <v>2009</v>
       </c>
       <c r="F94">
-        <v>116</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2277,16 +2277,16 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>3444</v>
+        <v>5860</v>
       </c>
       <c r="D95">
-        <v>9994165</v>
+        <v>9991743</v>
       </c>
       <c r="E95">
-        <v>2268</v>
+        <v>2168</v>
       </c>
       <c r="F95">
-        <v>123</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2297,16 +2297,16 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>3648</v>
+        <v>6370</v>
       </c>
       <c r="D96">
-        <v>9993778</v>
+        <v>9991050</v>
       </c>
       <c r="E96">
-        <v>2446</v>
+        <v>2341</v>
       </c>
       <c r="F96">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2317,16 +2317,16 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>3893</v>
+        <v>6877</v>
       </c>
       <c r="D97">
-        <v>9993342</v>
+        <v>9990328</v>
       </c>
       <c r="E97">
-        <v>2627</v>
+        <v>2536</v>
       </c>
       <c r="F97">
-        <v>138</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2337,16 +2337,16 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>4164</v>
+        <v>7454</v>
       </c>
       <c r="D98">
-        <v>9992875</v>
+        <v>9989550</v>
       </c>
       <c r="E98">
-        <v>2814</v>
+        <v>2721</v>
       </c>
       <c r="F98">
-        <v>147</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2357,16 +2357,16 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>4428</v>
+        <v>8059</v>
       </c>
       <c r="D99">
-        <v>9992393</v>
+        <v>9988711</v>
       </c>
       <c r="E99">
-        <v>3020</v>
+        <v>2932</v>
       </c>
       <c r="F99">
-        <v>159</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>4727</v>
+        <v>8720</v>
       </c>
       <c r="D100">
-        <v>9991897</v>
+        <v>9987794</v>
       </c>
       <c r="E100">
-        <v>3203</v>
+        <v>3169</v>
       </c>
       <c r="F100">
-        <v>173</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2397,16 +2397,16 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>5015</v>
+        <v>9439</v>
       </c>
       <c r="D101">
-        <v>9991363</v>
+        <v>9986790</v>
       </c>
       <c r="E101">
-        <v>3438</v>
+        <v>3432</v>
       </c>
       <c r="F101">
-        <v>184</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2417,16 +2417,16 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>5343</v>
+        <v>10249</v>
       </c>
       <c r="D102">
-        <v>9990764</v>
+        <v>9985675</v>
       </c>
       <c r="E102">
-        <v>3694</v>
+        <v>3708</v>
       </c>
       <c r="F102">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2437,16 +2437,16 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>5723</v>
+        <v>11079</v>
       </c>
       <c r="D103">
-        <v>9990116</v>
+        <v>9984499</v>
       </c>
       <c r="E103">
-        <v>3951</v>
+        <v>4025</v>
       </c>
       <c r="F103">
-        <v>210</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2457,16 +2457,16 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>6118</v>
+        <v>11974</v>
       </c>
       <c r="D104">
-        <v>9989446</v>
+        <v>9983230</v>
       </c>
       <c r="E104">
-        <v>4219</v>
+        <v>4357</v>
       </c>
       <c r="F104">
-        <v>217</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2477,16 +2477,16 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>6561</v>
+        <v>12901</v>
       </c>
       <c r="D105">
-        <v>9988696</v>
+        <v>9981901</v>
       </c>
       <c r="E105">
-        <v>4510</v>
+        <v>4707</v>
       </c>
       <c r="F105">
-        <v>233</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2497,16 +2497,16 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>7005</v>
+        <v>13922</v>
       </c>
       <c r="D106">
-        <v>9987913</v>
+        <v>9980442</v>
       </c>
       <c r="E106">
-        <v>4837</v>
+        <v>5118</v>
       </c>
       <c r="F106">
-        <v>245</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2517,16 +2517,16 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>7485</v>
+        <v>15101</v>
       </c>
       <c r="D107">
-        <v>9987073</v>
+        <v>9978801</v>
       </c>
       <c r="E107">
-        <v>5181</v>
+        <v>5533</v>
       </c>
       <c r="F107">
-        <v>261</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2537,16 +2537,16 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>7957</v>
+        <v>16281</v>
       </c>
       <c r="D108">
-        <v>9986208</v>
+        <v>9977126</v>
       </c>
       <c r="E108">
-        <v>5553</v>
+        <v>5988</v>
       </c>
       <c r="F108">
-        <v>282</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2557,16 +2557,16 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>8537</v>
+        <v>17590</v>
       </c>
       <c r="D109">
-        <v>9985241</v>
+        <v>9975283</v>
       </c>
       <c r="E109">
-        <v>5922</v>
+        <v>6472</v>
       </c>
       <c r="F109">
-        <v>300</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2577,16 +2577,16 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>9158</v>
+        <v>19016</v>
       </c>
       <c r="D110">
-        <v>9984184</v>
+        <v>9973324</v>
       </c>
       <c r="E110">
-        <v>6336</v>
+        <v>6945</v>
       </c>
       <c r="F110">
-        <v>322</v>
+        <v>715</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2597,16 +2597,16 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>9797</v>
+        <v>20589</v>
       </c>
       <c r="D111">
-        <v>9983078</v>
+        <v>9971154</v>
       </c>
       <c r="E111">
-        <v>6781</v>
+        <v>7478</v>
       </c>
       <c r="F111">
-        <v>344</v>
+        <v>779</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2617,16 +2617,16 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>10436</v>
+        <v>22244</v>
       </c>
       <c r="D112">
-        <v>9981957</v>
+        <v>9968806</v>
       </c>
       <c r="E112">
-        <v>7242</v>
+        <v>8100</v>
       </c>
       <c r="F112">
-        <v>365</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2637,16 +2637,16 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>11231</v>
+        <v>24089</v>
       </c>
       <c r="D113">
-        <v>9980666</v>
+        <v>9966239</v>
       </c>
       <c r="E113">
-        <v>7714</v>
+        <v>8759</v>
       </c>
       <c r="F113">
-        <v>389</v>
+        <v>913</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2657,16 +2657,16 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>12127</v>
+        <v>26008</v>
       </c>
       <c r="D114">
-        <v>9979236</v>
+        <v>9963542</v>
       </c>
       <c r="E114">
-        <v>8229</v>
+        <v>9468</v>
       </c>
       <c r="F114">
-        <v>408</v>
+        <v>982</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2677,16 +2677,16 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>12954</v>
+        <v>28010</v>
       </c>
       <c r="D115">
-        <v>9977810</v>
+        <v>9960701</v>
       </c>
       <c r="E115">
-        <v>8798</v>
+        <v>10213</v>
       </c>
       <c r="F115">
-        <v>438</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2697,16 +2697,16 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>13861</v>
+        <v>30260</v>
       </c>
       <c r="D116">
-        <v>9976255</v>
+        <v>9957534</v>
       </c>
       <c r="E116">
-        <v>9420</v>
+        <v>11042</v>
       </c>
       <c r="F116">
-        <v>464</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2717,16 +2717,16 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>14846</v>
+        <v>32691</v>
       </c>
       <c r="D117">
-        <v>9974600</v>
+        <v>9954099</v>
       </c>
       <c r="E117">
-        <v>10054</v>
+        <v>11938</v>
       </c>
       <c r="F117">
-        <v>500</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2737,16 +2737,16 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>15866</v>
+        <v>35219</v>
       </c>
       <c r="D118">
-        <v>9972830</v>
+        <v>9950456</v>
       </c>
       <c r="E118">
-        <v>10765</v>
+        <v>12928</v>
       </c>
       <c r="F118">
-        <v>539</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2757,16 +2757,16 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>16908</v>
+        <v>38051</v>
       </c>
       <c r="D119">
-        <v>9971005</v>
+        <v>9946448</v>
       </c>
       <c r="E119">
-        <v>11499</v>
+        <v>14000</v>
       </c>
       <c r="F119">
-        <v>588</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2777,16 +2777,16 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>18071</v>
+        <v>40993</v>
       </c>
       <c r="D120">
-        <v>9969002</v>
+        <v>9942237</v>
       </c>
       <c r="E120">
-        <v>12301</v>
+        <v>15143</v>
       </c>
       <c r="F120">
-        <v>626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2797,16 +2797,16 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>19401</v>
+        <v>44301</v>
       </c>
       <c r="D121">
-        <v>9966807</v>
+        <v>9937600</v>
       </c>
       <c r="E121">
-        <v>13118</v>
+        <v>16328</v>
       </c>
       <c r="F121">
-        <v>674</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2817,16 +2817,16 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>20771</v>
+        <v>47742</v>
       </c>
       <c r="D122">
-        <v>9964470</v>
+        <v>9932700</v>
       </c>
       <c r="E122">
-        <v>14021</v>
+        <v>17648</v>
       </c>
       <c r="F122">
-        <v>738</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2837,16 +2837,16 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>22181</v>
+        <v>51402</v>
       </c>
       <c r="D123">
-        <v>9962003</v>
+        <v>9927399</v>
       </c>
       <c r="E123">
-        <v>15030</v>
+        <v>19124</v>
       </c>
       <c r="F123">
-        <v>786</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2857,16 +2857,16 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>23725</v>
+        <v>55535</v>
       </c>
       <c r="D124">
-        <v>9959353</v>
+        <v>9921591</v>
       </c>
       <c r="E124">
-        <v>16071</v>
+        <v>20624</v>
       </c>
       <c r="F124">
-        <v>851</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2877,16 +2877,16 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>25328</v>
+        <v>59785</v>
       </c>
       <c r="D125">
-        <v>9956629</v>
+        <v>9915498</v>
       </c>
       <c r="E125">
-        <v>17144</v>
+        <v>22290</v>
       </c>
       <c r="F125">
-        <v>899</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2897,16 +2897,16 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>26993</v>
+        <v>64464</v>
       </c>
       <c r="D126">
-        <v>9953673</v>
+        <v>9908860</v>
       </c>
       <c r="E126">
-        <v>18372</v>
+        <v>24083</v>
       </c>
       <c r="F126">
-        <v>962</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2917,16 +2917,16 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>28766</v>
+        <v>69453</v>
       </c>
       <c r="D127">
-        <v>9950470</v>
+        <v>9901701</v>
       </c>
       <c r="E127">
-        <v>19721</v>
+        <v>26032</v>
       </c>
       <c r="F127">
-        <v>1043</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2937,16 +2937,16 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>30861</v>
+        <v>74778</v>
       </c>
       <c r="D128">
-        <v>9946949</v>
+        <v>9894028</v>
       </c>
       <c r="E128">
-        <v>21076</v>
+        <v>28153</v>
       </c>
       <c r="F128">
-        <v>1114</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2957,16 +2957,16 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>32900</v>
+        <v>80515</v>
       </c>
       <c r="D129">
-        <v>9943355</v>
+        <v>9885724</v>
       </c>
       <c r="E129">
-        <v>22543</v>
+        <v>30463</v>
       </c>
       <c r="F129">
-        <v>1202</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2977,16 +2977,16 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>35046</v>
+        <v>86759</v>
       </c>
       <c r="D130">
-        <v>9939554</v>
+        <v>9876783</v>
       </c>
       <c r="E130">
-        <v>24122</v>
+        <v>32895</v>
       </c>
       <c r="F130">
-        <v>1278</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2997,16 +2997,16 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>37497</v>
+        <v>93568</v>
       </c>
       <c r="D131">
-        <v>9935333</v>
+        <v>9867133</v>
       </c>
       <c r="E131">
-        <v>25814</v>
+        <v>35455</v>
       </c>
       <c r="F131">
-        <v>1356</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3017,16 +3017,16 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>40036</v>
+        <v>100963</v>
       </c>
       <c r="D132">
-        <v>9930969</v>
+        <v>9856571</v>
       </c>
       <c r="E132">
-        <v>27558</v>
+        <v>38278</v>
       </c>
       <c r="F132">
-        <v>1437</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3037,16 +3037,16 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>42728</v>
+        <v>108735</v>
       </c>
       <c r="D133">
-        <v>9926274</v>
+        <v>9845364</v>
       </c>
       <c r="E133">
-        <v>29460</v>
+        <v>41371</v>
       </c>
       <c r="F133">
-        <v>1538</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3057,16 +3057,16 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>45629</v>
+        <v>116888</v>
       </c>
       <c r="D134">
-        <v>9921178</v>
+        <v>9833568</v>
       </c>
       <c r="E134">
-        <v>31542</v>
+        <v>44668</v>
       </c>
       <c r="F134">
-        <v>1651</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3077,16 +3077,16 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>48733</v>
+        <v>125726</v>
       </c>
       <c r="D135">
-        <v>9915737</v>
+        <v>9820722</v>
       </c>
       <c r="E135">
-        <v>33776</v>
+        <v>48291</v>
       </c>
       <c r="F135">
-        <v>1754</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3097,16 +3097,16 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>51975</v>
+        <v>135127</v>
       </c>
       <c r="D136">
-        <v>9910028</v>
+        <v>9807110</v>
       </c>
       <c r="E136">
-        <v>36117</v>
+        <v>52115</v>
       </c>
       <c r="F136">
-        <v>1880</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3117,16 +3117,16 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>55499</v>
+        <v>145351</v>
       </c>
       <c r="D137">
-        <v>9903854</v>
+        <v>9792249</v>
       </c>
       <c r="E137">
-        <v>38629</v>
+        <v>56265</v>
       </c>
       <c r="F137">
-        <v>2018</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3137,16 +3137,16 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>59261</v>
+        <v>156301</v>
       </c>
       <c r="D138">
-        <v>9897368</v>
+        <v>9776399</v>
       </c>
       <c r="E138">
-        <v>41201</v>
+        <v>60644</v>
       </c>
       <c r="F138">
-        <v>2170</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3157,16 +3157,16 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>63310</v>
+        <v>167980</v>
       </c>
       <c r="D139">
-        <v>9890363</v>
+        <v>9759419</v>
       </c>
       <c r="E139">
-        <v>44030</v>
+        <v>65428</v>
       </c>
       <c r="F139">
-        <v>2297</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3177,16 +3177,16 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>67582</v>
+        <v>180229</v>
       </c>
       <c r="D140">
-        <v>9882888</v>
+        <v>9741362</v>
       </c>
       <c r="E140">
-        <v>47078</v>
+        <v>70636</v>
       </c>
       <c r="F140">
-        <v>2452</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3197,16 +3197,16 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>72034</v>
+        <v>193820</v>
       </c>
       <c r="D141">
-        <v>9874915</v>
+        <v>9721678</v>
       </c>
       <c r="E141">
-        <v>50414</v>
+        <v>76121</v>
       </c>
       <c r="F141">
-        <v>2637</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3217,16 +3217,16 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>76812</v>
+        <v>207965</v>
       </c>
       <c r="D142">
-        <v>9866543</v>
+        <v>9700895</v>
       </c>
       <c r="E142">
-        <v>53826</v>
+        <v>82069</v>
       </c>
       <c r="F142">
-        <v>2819</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3237,16 +3237,16 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>82008</v>
+        <v>223027</v>
       </c>
       <c r="D143">
-        <v>9857546</v>
+        <v>9678674</v>
       </c>
       <c r="E143">
-        <v>57469</v>
+        <v>88551</v>
       </c>
       <c r="F143">
-        <v>2977</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3257,16 +3257,16 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>87309</v>
+        <v>239145</v>
       </c>
       <c r="D144">
-        <v>9848024</v>
+        <v>9654883</v>
       </c>
       <c r="E144">
-        <v>61471</v>
+        <v>95420</v>
       </c>
       <c r="F144">
-        <v>3196</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3277,16 +3277,16 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>93063</v>
+        <v>256251</v>
       </c>
       <c r="D145">
-        <v>9837906</v>
+        <v>9629473</v>
       </c>
       <c r="E145">
-        <v>65600</v>
+        <v>102903</v>
       </c>
       <c r="F145">
-        <v>3431</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3297,16 +3297,16 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>99272</v>
+        <v>274403</v>
       </c>
       <c r="D146">
-        <v>9827002</v>
+        <v>9602380</v>
       </c>
       <c r="E146">
-        <v>70063</v>
+        <v>110959</v>
       </c>
       <c r="F146">
-        <v>3663</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3317,16 +3317,16 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>105612</v>
+        <v>293731</v>
       </c>
       <c r="D147">
-        <v>9815566</v>
+        <v>9573402</v>
       </c>
       <c r="E147">
-        <v>74910</v>
+        <v>119641</v>
       </c>
       <c r="F147">
-        <v>3912</v>
+        <v>13226</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3337,16 +3337,16 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>112609</v>
+        <v>314126</v>
       </c>
       <c r="D148">
-        <v>9803128</v>
+        <v>9542445</v>
       </c>
       <c r="E148">
-        <v>80057</v>
+        <v>129207</v>
       </c>
       <c r="F148">
-        <v>4206</v>
+        <v>14222</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3357,16 +3357,16 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>120111</v>
+        <v>335735</v>
       </c>
       <c r="D149">
-        <v>9789917</v>
+        <v>9509629</v>
       </c>
       <c r="E149">
-        <v>85481</v>
+        <v>139329</v>
       </c>
       <c r="F149">
-        <v>4491</v>
+        <v>15307</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3377,16 +3377,16 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>127877</v>
+        <v>358617</v>
       </c>
       <c r="D150">
-        <v>9775977</v>
+        <v>9474951</v>
       </c>
       <c r="E150">
-        <v>91341</v>
+        <v>149979</v>
       </c>
       <c r="F150">
-        <v>4805</v>
+        <v>16453</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3397,16 +3397,16 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>136438</v>
+        <v>382659</v>
       </c>
       <c r="D151">
-        <v>9760930</v>
+        <v>9438063</v>
       </c>
       <c r="E151">
-        <v>97483</v>
+        <v>161565</v>
       </c>
       <c r="F151">
-        <v>5149</v>
+        <v>17713</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3417,16 +3417,16 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>145353</v>
+        <v>407760</v>
       </c>
       <c r="D152">
-        <v>9745010</v>
+        <v>9399350</v>
       </c>
       <c r="E152">
-        <v>104127</v>
+        <v>173854</v>
       </c>
       <c r="F152">
-        <v>5510</v>
+        <v>19036</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3437,16 +3437,16 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>154461</v>
+        <v>434141</v>
       </c>
       <c r="D153">
-        <v>9728427</v>
+        <v>9358108</v>
       </c>
       <c r="E153">
-        <v>111242</v>
+        <v>187221</v>
       </c>
       <c r="F153">
-        <v>5870</v>
+        <v>20530</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3457,16 +3457,16 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>164303</v>
+        <v>461908</v>
       </c>
       <c r="D154">
-        <v>9710612</v>
+        <v>9314491</v>
       </c>
       <c r="E154">
-        <v>118833</v>
+        <v>201477</v>
       </c>
       <c r="F154">
-        <v>6252</v>
+        <v>22124</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3477,16 +3477,16 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>174656</v>
+        <v>490646</v>
       </c>
       <c r="D155">
-        <v>9691887</v>
+        <v>9268773</v>
       </c>
       <c r="E155">
-        <v>126774</v>
+        <v>216784</v>
       </c>
       <c r="F155">
-        <v>6683</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3497,16 +3497,16 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>185897</v>
+        <v>520738</v>
       </c>
       <c r="D156">
-        <v>9671649</v>
+        <v>9220624</v>
       </c>
       <c r="E156">
-        <v>135340</v>
+        <v>232953</v>
       </c>
       <c r="F156">
-        <v>7114</v>
+        <v>25685</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3517,16 +3517,16 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>197385</v>
+        <v>551660</v>
       </c>
       <c r="D157">
-        <v>9650639</v>
+        <v>9170018</v>
       </c>
       <c r="E157">
-        <v>144397</v>
+        <v>250716</v>
       </c>
       <c r="F157">
-        <v>7579</v>
+        <v>27606</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3537,16 +3537,16 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>209750</v>
+        <v>583727</v>
       </c>
       <c r="D158">
-        <v>9628156</v>
+        <v>9117168</v>
       </c>
       <c r="E158">
-        <v>154005</v>
+        <v>269419</v>
       </c>
       <c r="F158">
-        <v>8089</v>
+        <v>29686</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3557,16 +3557,16 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>222670</v>
+        <v>617372</v>
       </c>
       <c r="D159">
-        <v>9604332</v>
+        <v>9061302</v>
       </c>
       <c r="E159">
-        <v>164359</v>
+        <v>289394</v>
       </c>
       <c r="F159">
-        <v>8639</v>
+        <v>31932</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3577,16 +3577,16 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>236348</v>
+        <v>652115</v>
       </c>
       <c r="D160">
-        <v>9579218</v>
+        <v>9002768</v>
       </c>
       <c r="E160">
-        <v>175247</v>
+        <v>310851</v>
       </c>
       <c r="F160">
-        <v>9187</v>
+        <v>34266</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3597,16 +3597,16 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>250659</v>
+        <v>687320</v>
       </c>
       <c r="D161">
-        <v>9552469</v>
+        <v>8942153</v>
       </c>
       <c r="E161">
-        <v>187071</v>
+        <v>333793</v>
       </c>
       <c r="F161">
-        <v>9801</v>
+        <v>36734</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3617,16 +3617,16 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>265675</v>
+        <v>723235</v>
       </c>
       <c r="D162">
-        <v>9524242</v>
+        <v>8879145</v>
       </c>
       <c r="E162">
-        <v>199628</v>
+        <v>358268</v>
       </c>
       <c r="F162">
-        <v>10455</v>
+        <v>39352</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3637,16 +3637,16 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>281434</v>
+        <v>759545</v>
       </c>
       <c r="D163">
-        <v>9494543</v>
+        <v>8813857</v>
       </c>
       <c r="E163">
-        <v>212834</v>
+        <v>384448</v>
       </c>
       <c r="F163">
-        <v>11189</v>
+        <v>42150</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3657,16 +3657,16 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>298007</v>
+        <v>795722</v>
       </c>
       <c r="D164">
-        <v>9462923</v>
+        <v>8746723</v>
       </c>
       <c r="E164">
-        <v>227109</v>
+        <v>412275</v>
       </c>
       <c r="F164">
-        <v>11961</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3677,16 +3677,16 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>315472</v>
+        <v>832609</v>
       </c>
       <c r="D165">
-        <v>9429538</v>
+        <v>8677020</v>
       </c>
       <c r="E165">
-        <v>242235</v>
+        <v>441820</v>
       </c>
       <c r="F165">
-        <v>12755</v>
+        <v>48551</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3697,16 +3697,16 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>333958</v>
+        <v>869967</v>
       </c>
       <c r="D166">
-        <v>9394469</v>
+        <v>8604984</v>
       </c>
       <c r="E166">
-        <v>257978</v>
+        <v>472937</v>
       </c>
       <c r="F166">
-        <v>13595</v>
+        <v>52112</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3717,16 +3717,16 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>353011</v>
+        <v>906955</v>
       </c>
       <c r="D167">
-        <v>9357601</v>
+        <v>8531108</v>
       </c>
       <c r="E167">
-        <v>274878</v>
+        <v>506186</v>
       </c>
       <c r="F167">
-        <v>14510</v>
+        <v>55751</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3737,16 +3737,16 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>373282</v>
+        <v>944047</v>
       </c>
       <c r="D168">
-        <v>9318605</v>
+        <v>8455303</v>
       </c>
       <c r="E168">
-        <v>292608</v>
+        <v>541018</v>
       </c>
       <c r="F168">
-        <v>15505</v>
+        <v>59632</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3757,16 +3757,16 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>393967</v>
+        <v>979632</v>
       </c>
       <c r="D169">
-        <v>9277682</v>
+        <v>8378476</v>
       </c>
       <c r="E169">
-        <v>311865</v>
+        <v>578105</v>
       </c>
       <c r="F169">
-        <v>16486</v>
+        <v>63787</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3777,16 +3777,16 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>416084</v>
+        <v>1015256</v>
       </c>
       <c r="D170">
-        <v>9234555</v>
+        <v>8299235</v>
       </c>
       <c r="E170">
-        <v>331758</v>
+        <v>617266</v>
       </c>
       <c r="F170">
-        <v>17603</v>
+        <v>68243</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3797,16 +3797,16 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>438538</v>
+        <v>1049289</v>
       </c>
       <c r="D171">
-        <v>9189618</v>
+        <v>8219484</v>
       </c>
       <c r="E171">
-        <v>353130</v>
+        <v>658357</v>
       </c>
       <c r="F171">
-        <v>18714</v>
+        <v>72870</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3817,16 +3817,16 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>462122</v>
+        <v>1082298</v>
       </c>
       <c r="D172">
-        <v>9142210</v>
+        <v>8138326</v>
       </c>
       <c r="E172">
-        <v>375738</v>
+        <v>701762</v>
       </c>
       <c r="F172">
-        <v>19930</v>
+        <v>77614</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3837,16 +3837,16 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>486197</v>
+        <v>1114133</v>
       </c>
       <c r="D173">
-        <v>9093021</v>
+        <v>8055885</v>
       </c>
       <c r="E173">
-        <v>399604</v>
+        <v>747204</v>
       </c>
       <c r="F173">
-        <v>21178</v>
+        <v>82778</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3857,16 +3857,16 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>511093</v>
+        <v>1143898</v>
       </c>
       <c r="D174">
-        <v>9041376</v>
+        <v>7973270</v>
       </c>
       <c r="E174">
-        <v>425050</v>
+        <v>794894</v>
       </c>
       <c r="F174">
-        <v>22481</v>
+        <v>87938</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3877,16 +3877,16 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>537127</v>
+        <v>1170892</v>
       </c>
       <c r="D175">
-        <v>8987115</v>
+        <v>7890410</v>
       </c>
       <c r="E175">
-        <v>451871</v>
+        <v>845128</v>
       </c>
       <c r="F175">
-        <v>23887</v>
+        <v>93570</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3897,16 +3897,16 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>563823</v>
+        <v>1194995</v>
       </c>
       <c r="D176">
-        <v>8930720</v>
+        <v>7807773</v>
       </c>
       <c r="E176">
-        <v>480042</v>
+        <v>897888</v>
       </c>
       <c r="F176">
-        <v>25415</v>
+        <v>99344</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3917,16 +3917,16 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>590461</v>
+        <v>1217016</v>
       </c>
       <c r="D177">
-        <v>8872462</v>
+        <v>7725137</v>
       </c>
       <c r="E177">
-        <v>510067</v>
+        <v>952386</v>
       </c>
       <c r="F177">
-        <v>27010</v>
+        <v>105461</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3937,16 +3937,16 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>617578</v>
+        <v>1236429</v>
       </c>
       <c r="D178">
-        <v>8811960</v>
+        <v>7642716</v>
       </c>
       <c r="E178">
-        <v>541790</v>
+        <v>1009174</v>
       </c>
       <c r="F178">
-        <v>28672</v>
+        <v>111681</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3957,16 +3957,16 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>645491</v>
+        <v>1252614</v>
       </c>
       <c r="D179">
-        <v>8748978</v>
+        <v>7561243</v>
       </c>
       <c r="E179">
-        <v>575074</v>
+        <v>1067826</v>
       </c>
       <c r="F179">
-        <v>30457</v>
+        <v>118317</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3977,16 +3977,16 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>674125</v>
+        <v>1265942</v>
       </c>
       <c r="D180">
-        <v>8683476</v>
+        <v>7480781</v>
       </c>
       <c r="E180">
-        <v>610070</v>
+        <v>1128352</v>
       </c>
       <c r="F180">
-        <v>32329</v>
+        <v>124925</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3997,16 +3997,16 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>703209</v>
+        <v>1275409</v>
       </c>
       <c r="D181">
-        <v>8615396</v>
+        <v>7401611</v>
       </c>
       <c r="E181">
-        <v>647148</v>
+        <v>1191107</v>
       </c>
       <c r="F181">
-        <v>34247</v>
+        <v>131873</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4017,16 +4017,16 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>732420</v>
+        <v>1281288</v>
       </c>
       <c r="D182">
-        <v>8545262</v>
+        <v>7323696</v>
       </c>
       <c r="E182">
-        <v>686054</v>
+        <v>1256094</v>
       </c>
       <c r="F182">
-        <v>36264</v>
+        <v>138922</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4037,16 +4037,16 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>761429</v>
+        <v>1283723</v>
       </c>
       <c r="D183">
-        <v>8473126</v>
+        <v>7247385</v>
       </c>
       <c r="E183">
-        <v>727126</v>
+        <v>1322641</v>
       </c>
       <c r="F183">
-        <v>38319</v>
+        <v>146251</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4057,16 +4057,16 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>791100</v>
+        <v>1282800</v>
       </c>
       <c r="D184">
-        <v>8398518</v>
+        <v>7172503</v>
       </c>
       <c r="E184">
-        <v>769852</v>
+        <v>1390890</v>
       </c>
       <c r="F184">
-        <v>40530</v>
+        <v>153807</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4077,16 +4077,16 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>820658</v>
+        <v>1278710</v>
       </c>
       <c r="D185">
-        <v>8321552</v>
+        <v>7099766</v>
       </c>
       <c r="E185">
-        <v>814937</v>
+        <v>1459932</v>
       </c>
       <c r="F185">
-        <v>42853</v>
+        <v>161592</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4097,16 +4097,16 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>850048</v>
+        <v>1270340</v>
       </c>
       <c r="D186">
-        <v>8242973</v>
+        <v>7028895</v>
       </c>
       <c r="E186">
-        <v>861669</v>
+        <v>1531206</v>
       </c>
       <c r="F186">
-        <v>45310</v>
+        <v>169559</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4117,16 +4117,16 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>878643</v>
+        <v>1259259</v>
       </c>
       <c r="D187">
-        <v>8162733</v>
+        <v>6960225</v>
       </c>
       <c r="E187">
-        <v>910749</v>
+        <v>1603019</v>
       </c>
       <c r="F187">
-        <v>47875</v>
+        <v>177497</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4137,16 +4137,16 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>906633</v>
+        <v>1245040</v>
       </c>
       <c r="D188">
-        <v>8080482</v>
+        <v>6893286</v>
       </c>
       <c r="E188">
-        <v>962363</v>
+        <v>1675994</v>
       </c>
       <c r="F188">
-        <v>50522</v>
+        <v>185680</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4157,16 +4157,16 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>933855</v>
+        <v>1226870</v>
       </c>
       <c r="D189">
-        <v>7996865</v>
+        <v>6829015</v>
       </c>
       <c r="E189">
-        <v>1015931</v>
+        <v>1750011</v>
       </c>
       <c r="F189">
-        <v>53349</v>
+        <v>194104</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4177,16 +4177,16 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>960517</v>
+        <v>1206544</v>
       </c>
       <c r="D190">
-        <v>7911945</v>
+        <v>6766726</v>
       </c>
       <c r="E190">
-        <v>1071297</v>
+        <v>1824351</v>
       </c>
       <c r="F190">
-        <v>56241</v>
+        <v>202379</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4197,16 +4197,16 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>986505</v>
+        <v>1183292</v>
       </c>
       <c r="D191">
-        <v>7825455</v>
+        <v>6707118</v>
       </c>
       <c r="E191">
-        <v>1128760</v>
+        <v>1898900</v>
       </c>
       <c r="F191">
-        <v>59280</v>
+        <v>210690</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4217,16 +4217,16 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>1010803</v>
+        <v>1157793</v>
       </c>
       <c r="D192">
-        <v>7738175</v>
+        <v>6649980</v>
       </c>
       <c r="E192">
-        <v>1188566</v>
+        <v>1973433</v>
       </c>
       <c r="F192">
-        <v>62456</v>
+        <v>218794</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4237,16 +4237,16 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>1033500</v>
+        <v>1129860</v>
       </c>
       <c r="D193">
-        <v>7649976</v>
+        <v>6595277</v>
       </c>
       <c r="E193">
-        <v>1250694</v>
+        <v>2047825</v>
       </c>
       <c r="F193">
-        <v>65830</v>
+        <v>227038</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4257,16 +4257,16 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>1054694</v>
+        <v>1099803</v>
       </c>
       <c r="D194">
-        <v>7560702</v>
+        <v>6542913</v>
       </c>
       <c r="E194">
-        <v>1315423</v>
+        <v>2122028</v>
       </c>
       <c r="F194">
-        <v>69181</v>
+        <v>235256</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4277,16 +4277,16 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>1074187</v>
+        <v>1068404</v>
       </c>
       <c r="D195">
-        <v>7471075</v>
+        <v>6492839</v>
       </c>
       <c r="E195">
-        <v>1382077</v>
+        <v>2195236</v>
       </c>
       <c r="F195">
-        <v>72661</v>
+        <v>243521</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4297,16 +4297,16 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>1092471</v>
+        <v>1035296</v>
       </c>
       <c r="D196">
-        <v>7380655</v>
+        <v>6445485</v>
       </c>
       <c r="E196">
-        <v>1450603</v>
+        <v>2267508</v>
       </c>
       <c r="F196">
-        <v>76271</v>
+        <v>251711</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4317,16 +4317,16 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>1107774</v>
+        <v>1000712</v>
       </c>
       <c r="D197">
-        <v>7290744</v>
+        <v>6400899</v>
       </c>
       <c r="E197">
-        <v>1521555</v>
+        <v>2338833</v>
       </c>
       <c r="F197">
-        <v>79927</v>
+        <v>259556</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4337,16 +4337,16 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>1121381</v>
+        <v>965641</v>
       </c>
       <c r="D198">
-        <v>7200171</v>
+        <v>6358055</v>
       </c>
       <c r="E198">
-        <v>1594725</v>
+        <v>2408940</v>
       </c>
       <c r="F198">
-        <v>83723</v>
+        <v>267364</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4357,16 +4357,16 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>1133129</v>
+        <v>929600</v>
       </c>
       <c r="D199">
-        <v>7109844</v>
+        <v>6317785</v>
       </c>
       <c r="E199">
-        <v>1669409</v>
+        <v>2477596</v>
       </c>
       <c r="F199">
-        <v>87618</v>
+        <v>275019</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4377,16 +4377,16 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>1142044</v>
+        <v>893057</v>
       </c>
       <c r="D200">
-        <v>7020689</v>
+        <v>6279446</v>
       </c>
       <c r="E200">
-        <v>1745633</v>
+        <v>2544988</v>
       </c>
       <c r="F200">
-        <v>91634</v>
+        <v>282509</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4397,16 +4397,16 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>1149042</v>
+        <v>856590</v>
       </c>
       <c r="D201">
-        <v>6931440</v>
+        <v>6243176</v>
       </c>
       <c r="E201">
-        <v>1823743</v>
+        <v>2610502</v>
       </c>
       <c r="F201">
-        <v>95775</v>
+        <v>289732</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4417,16 +4417,16 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>1153711</v>
+        <v>819744</v>
       </c>
       <c r="D202">
-        <v>6843154</v>
+        <v>6209151</v>
       </c>
       <c r="E202">
-        <v>1903123</v>
+        <v>2674339</v>
       </c>
       <c r="F202">
-        <v>100012</v>
+        <v>296766</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4437,16 +4437,16 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>1156338</v>
+        <v>783647</v>
       </c>
       <c r="D203">
-        <v>6755607</v>
+        <v>6176578</v>
       </c>
       <c r="E203">
-        <v>1983703</v>
+        <v>2736112</v>
       </c>
       <c r="F203">
-        <v>104352</v>
+        <v>303663</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4457,16 +4457,16 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>1155877</v>
+        <v>746917</v>
       </c>
       <c r="D204">
-        <v>6669578</v>
+        <v>6146369</v>
       </c>
       <c r="E204">
-        <v>2065931</v>
+        <v>2796283</v>
       </c>
       <c r="F204">
-        <v>108614</v>
+        <v>310431</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4477,16 +4477,16 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>1153490</v>
+        <v>710983</v>
       </c>
       <c r="D205">
-        <v>6584685</v>
+        <v>6118032</v>
       </c>
       <c r="E205">
-        <v>2148934</v>
+        <v>2854141</v>
       </c>
       <c r="F205">
-        <v>112891</v>
+        <v>316844</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4497,16 +4497,16 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>1148221</v>
+        <v>675483</v>
       </c>
       <c r="D206">
-        <v>6501755</v>
+        <v>6091243</v>
       </c>
       <c r="E206">
-        <v>2232730</v>
+        <v>2910289</v>
       </c>
       <c r="F206">
-        <v>117294</v>
+        <v>322985</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4517,16 +4517,16 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>1140831</v>
+        <v>641118</v>
       </c>
       <c r="D207">
-        <v>6419871</v>
+        <v>6066000</v>
       </c>
       <c r="E207">
-        <v>2317523</v>
+        <v>2963829</v>
       </c>
       <c r="F207">
-        <v>121775</v>
+        <v>329053</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4537,16 +4537,16 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>1131070</v>
+        <v>607816</v>
       </c>
       <c r="D208">
-        <v>6340005</v>
+        <v>6042164</v>
       </c>
       <c r="E208">
-        <v>2402635</v>
+        <v>3015105</v>
       </c>
       <c r="F208">
-        <v>126290</v>
+        <v>334915</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4557,16 +4557,16 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>1118496</v>
+        <v>575557</v>
       </c>
       <c r="D209">
-        <v>6262159</v>
+        <v>6019720</v>
       </c>
       <c r="E209">
-        <v>2488447</v>
+        <v>3064352</v>
       </c>
       <c r="F209">
-        <v>130898</v>
+        <v>340371</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4577,16 +4577,16 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>1104366</v>
+        <v>544133</v>
       </c>
       <c r="D210">
-        <v>6186378</v>
+        <v>5998780</v>
       </c>
       <c r="E210">
-        <v>2573754</v>
+        <v>3111422</v>
       </c>
       <c r="F210">
-        <v>135502</v>
+        <v>345665</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4597,16 +4597,16 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>1087185</v>
+        <v>513417</v>
       </c>
       <c r="D211">
-        <v>6112986</v>
+        <v>5979422</v>
       </c>
       <c r="E211">
-        <v>2659644</v>
+        <v>3156447</v>
       </c>
       <c r="F211">
-        <v>140185</v>
+        <v>350714</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4617,16 +4617,16 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>1068455</v>
+        <v>484212</v>
       </c>
       <c r="D212">
-        <v>6041389</v>
+        <v>5961273</v>
       </c>
       <c r="E212">
-        <v>2745363</v>
+        <v>3199086</v>
       </c>
       <c r="F212">
-        <v>144793</v>
+        <v>355429</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4637,16 +4637,16 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>1048340</v>
+        <v>456592</v>
       </c>
       <c r="D213">
-        <v>5972349</v>
+        <v>5944307</v>
       </c>
       <c r="E213">
-        <v>2829999</v>
+        <v>3239233</v>
       </c>
       <c r="F213">
-        <v>149312</v>
+        <v>359868</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4657,16 +4657,16 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>1026287</v>
+        <v>429692</v>
       </c>
       <c r="D214">
-        <v>5905153</v>
+        <v>5928363</v>
       </c>
       <c r="E214">
-        <v>2914909</v>
+        <v>3277807</v>
       </c>
       <c r="F214">
-        <v>153651</v>
+        <v>364138</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4677,16 +4677,16 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>1002722</v>
+        <v>404087</v>
       </c>
       <c r="D215">
-        <v>5840432</v>
+        <v>5913698</v>
       </c>
       <c r="E215">
-        <v>2998748</v>
+        <v>3314067</v>
       </c>
       <c r="F215">
-        <v>158098</v>
+        <v>368148</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4697,16 +4697,16 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>977564</v>
+        <v>379364</v>
       </c>
       <c r="D216">
-        <v>5778043</v>
+        <v>5900082</v>
       </c>
       <c r="E216">
-        <v>3081844</v>
+        <v>3348467</v>
       </c>
       <c r="F216">
-        <v>162549</v>
+        <v>372087</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4717,16 +4717,16 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>951918</v>
+        <v>355942</v>
       </c>
       <c r="D217">
-        <v>5717660</v>
+        <v>5887234</v>
       </c>
       <c r="E217">
-        <v>3163715</v>
+        <v>3381164</v>
       </c>
       <c r="F217">
-        <v>166707</v>
+        <v>375660</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4737,16 +4737,16 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>924778</v>
+        <v>334191</v>
       </c>
       <c r="D218">
-        <v>5659907</v>
+        <v>5874960</v>
       </c>
       <c r="E218">
-        <v>3244397</v>
+        <v>3411817</v>
       </c>
       <c r="F218">
-        <v>170918</v>
+        <v>379032</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4757,16 +4757,16 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>897127</v>
+        <v>312779</v>
       </c>
       <c r="D219">
-        <v>5604628</v>
+        <v>5863799</v>
       </c>
       <c r="E219">
-        <v>3323090</v>
+        <v>3441190</v>
       </c>
       <c r="F219">
-        <v>175155</v>
+        <v>382232</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4777,16 +4777,16 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>868264</v>
+        <v>292986</v>
       </c>
       <c r="D220">
-        <v>5551607</v>
+        <v>5853383</v>
       </c>
       <c r="E220">
-        <v>3400856</v>
+        <v>3468426</v>
       </c>
       <c r="F220">
-        <v>179273</v>
+        <v>385205</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4797,16 +4797,16 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>839442</v>
+        <v>274374</v>
       </c>
       <c r="D221">
-        <v>5500563</v>
+        <v>5843658</v>
       </c>
       <c r="E221">
-        <v>3476742</v>
+        <v>3493965</v>
       </c>
       <c r="F221">
-        <v>183253</v>
+        <v>388003</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4817,16 +4817,16 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>810108</v>
+        <v>256790</v>
       </c>
       <c r="D222">
-        <v>5452051</v>
+        <v>5834453</v>
       </c>
       <c r="E222">
-        <v>3550796</v>
+        <v>3518100</v>
       </c>
       <c r="F222">
-        <v>187045</v>
+        <v>390657</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4837,16 +4837,16 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>781279</v>
+        <v>239916</v>
       </c>
       <c r="D223">
-        <v>5405099</v>
+        <v>5826084</v>
       </c>
       <c r="E223">
-        <v>3622766</v>
+        <v>3540837</v>
       </c>
       <c r="F223">
-        <v>190856</v>
+        <v>393163</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4857,16 +4857,16 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>752203</v>
+        <v>223916</v>
       </c>
       <c r="D224">
-        <v>5360783</v>
+        <v>5818248</v>
       </c>
       <c r="E224">
-        <v>3692443</v>
+        <v>3562254</v>
       </c>
       <c r="F224">
-        <v>194571</v>
+        <v>395582</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4877,16 +4877,16 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>722864</v>
+        <v>208776</v>
       </c>
       <c r="D225">
-        <v>5318525</v>
+        <v>5810944</v>
       </c>
       <c r="E225">
-        <v>3760534</v>
+        <v>3582468</v>
       </c>
       <c r="F225">
-        <v>198077</v>
+        <v>397812</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4897,16 +4897,16 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>694008</v>
+        <v>194682</v>
       </c>
       <c r="D226">
-        <v>5278341</v>
+        <v>5804098</v>
       </c>
       <c r="E226">
-        <v>3826170</v>
+        <v>3601386</v>
       </c>
       <c r="F226">
-        <v>201481</v>
+        <v>399834</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4917,16 +4917,16 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>665112</v>
+        <v>181569</v>
       </c>
       <c r="D227">
-        <v>5240041</v>
+        <v>5797853</v>
       </c>
       <c r="E227">
-        <v>3890052</v>
+        <v>3618917</v>
       </c>
       <c r="F227">
-        <v>204795</v>
+        <v>401661</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4937,16 +4937,16 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>636750</v>
+        <v>169255</v>
       </c>
       <c r="D228">
-        <v>5203682</v>
+        <v>5792018</v>
       </c>
       <c r="E228">
-        <v>3951563</v>
+        <v>3635219</v>
       </c>
       <c r="F228">
-        <v>208005</v>
+        <v>403508</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4957,16 +4957,16 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>608802</v>
+        <v>157712</v>
       </c>
       <c r="D229">
-        <v>5169241</v>
+        <v>5786595</v>
       </c>
       <c r="E229">
-        <v>4010859</v>
+        <v>3650531</v>
       </c>
       <c r="F229">
-        <v>211098</v>
+        <v>405162</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4977,16 +4977,16 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>580876</v>
+        <v>146782</v>
       </c>
       <c r="D230">
-        <v>5136784</v>
+        <v>5781581</v>
       </c>
       <c r="E230">
-        <v>4068205</v>
+        <v>3664872</v>
       </c>
       <c r="F230">
-        <v>214135</v>
+        <v>406765</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4997,16 +4997,16 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>554180</v>
+        <v>136917</v>
       </c>
       <c r="D231">
-        <v>5105727</v>
+        <v>5776781</v>
       </c>
       <c r="E231">
-        <v>4123109</v>
+        <v>3678044</v>
       </c>
       <c r="F231">
-        <v>216984</v>
+        <v>408258</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5017,16 +5017,16 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>527866</v>
+        <v>127670</v>
       </c>
       <c r="D232">
-        <v>5076762</v>
+        <v>5772412</v>
       </c>
       <c r="E232">
-        <v>4175661</v>
+        <v>3690289</v>
       </c>
       <c r="F232">
-        <v>219711</v>
+        <v>409629</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5037,16 +5037,16 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>502644</v>
+        <v>118814</v>
       </c>
       <c r="D233">
-        <v>5048963</v>
+        <v>5768420</v>
       </c>
       <c r="E233">
-        <v>4225963</v>
+        <v>3701822</v>
       </c>
       <c r="F233">
-        <v>222430</v>
+        <v>410944</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5057,16 +5057,16 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>477860</v>
+        <v>110386</v>
       </c>
       <c r="D234">
-        <v>5022703</v>
+        <v>5764574</v>
       </c>
       <c r="E234">
-        <v>4274379</v>
+        <v>3712848</v>
       </c>
       <c r="F234">
-        <v>225058</v>
+        <v>412192</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5077,16 +5077,16 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>453888</v>
+        <v>102737</v>
       </c>
       <c r="D235">
-        <v>4998163</v>
+        <v>5761062</v>
       </c>
       <c r="E235">
-        <v>4320424</v>
+        <v>3722841</v>
       </c>
       <c r="F235">
-        <v>227525</v>
+        <v>413360</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5097,16 +5097,16 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>430090</v>
+        <v>95535</v>
       </c>
       <c r="D236">
-        <v>4975009</v>
+        <v>5757848</v>
       </c>
       <c r="E236">
-        <v>4365037</v>
+        <v>3732149</v>
       </c>
       <c r="F236">
-        <v>229864</v>
+        <v>414468</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5117,16 +5117,16 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>407615</v>
+        <v>88838</v>
       </c>
       <c r="D237">
-        <v>4953168</v>
+        <v>5754820</v>
       </c>
       <c r="E237">
-        <v>4407152</v>
+        <v>3740888</v>
       </c>
       <c r="F237">
-        <v>232065</v>
+        <v>415454</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5137,16 +5137,16 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>386337</v>
+        <v>82429</v>
       </c>
       <c r="D238">
-        <v>4932188</v>
+        <v>5752024</v>
       </c>
       <c r="E238">
-        <v>4447321</v>
+        <v>3749183</v>
       </c>
       <c r="F238">
-        <v>234154</v>
+        <v>416364</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5157,16 +5157,16 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>365766</v>
+        <v>76632</v>
       </c>
       <c r="D239">
-        <v>4912575</v>
+        <v>5749452</v>
       </c>
       <c r="E239">
-        <v>4485407</v>
+        <v>3756779</v>
       </c>
       <c r="F239">
-        <v>236252</v>
+        <v>417137</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5177,16 +5177,16 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>346028</v>
+        <v>71175</v>
       </c>
       <c r="D240">
-        <v>4894013</v>
+        <v>5747073</v>
       </c>
       <c r="E240">
-        <v>4521773</v>
+        <v>3763836</v>
       </c>
       <c r="F240">
-        <v>238186</v>
+        <v>417916</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5197,16 +5197,16 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>327065</v>
+        <v>66112</v>
       </c>
       <c r="D241">
-        <v>4876617</v>
+        <v>5744832</v>
       </c>
       <c r="E241">
-        <v>4556275</v>
+        <v>3770392</v>
       </c>
       <c r="F241">
-        <v>240043</v>
+        <v>418664</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5217,16 +5217,16 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>308956</v>
+        <v>61310</v>
       </c>
       <c r="D242">
-        <v>4860285</v>
+        <v>5742788</v>
       </c>
       <c r="E242">
-        <v>4588936</v>
+        <v>3776509</v>
       </c>
       <c r="F242">
-        <v>241823</v>
+        <v>419393</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5237,16 +5237,16 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>291878</v>
+        <v>56856</v>
       </c>
       <c r="D243">
-        <v>4844906</v>
+        <v>5740997</v>
       </c>
       <c r="E243">
-        <v>4619773</v>
+        <v>3782125</v>
       </c>
       <c r="F243">
-        <v>243443</v>
+        <v>420022</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5257,16 +5257,16 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>275206</v>
+        <v>52770</v>
       </c>
       <c r="D244">
-        <v>4830521</v>
+        <v>5739248</v>
       </c>
       <c r="E244">
-        <v>4649291</v>
+        <v>3787370</v>
       </c>
       <c r="F244">
-        <v>244982</v>
+        <v>420612</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5277,16 +5277,16 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>260011</v>
+        <v>49006</v>
       </c>
       <c r="D245">
-        <v>4816751</v>
+        <v>5737589</v>
       </c>
       <c r="E245">
-        <v>4676893</v>
+        <v>3792218</v>
       </c>
       <c r="F245">
-        <v>246345</v>
+        <v>421187</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5297,16 +5297,16 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>244959</v>
+        <v>45539</v>
       </c>
       <c r="D246">
-        <v>4804004</v>
+        <v>5736042</v>
       </c>
       <c r="E246">
-        <v>4703425</v>
+        <v>3796712</v>
       </c>
       <c r="F246">
-        <v>247612</v>
+        <v>421707</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5317,16 +5317,16 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>230904</v>
+        <v>42136</v>
       </c>
       <c r="D247">
-        <v>4791799</v>
+        <v>5734645</v>
       </c>
       <c r="E247">
-        <v>4728366</v>
+        <v>3800992</v>
       </c>
       <c r="F247">
-        <v>248931</v>
+        <v>422227</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5337,16 +5337,16 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>217659</v>
+        <v>39025</v>
       </c>
       <c r="D248">
-        <v>4780504</v>
+        <v>5733387</v>
       </c>
       <c r="E248">
-        <v>4751672</v>
+        <v>3804934</v>
       </c>
       <c r="F248">
-        <v>250165</v>
+        <v>422654</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5357,16 +5357,16 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>205074</v>
+        <v>36218</v>
       </c>
       <c r="D249">
-        <v>4769935</v>
+        <v>5732202</v>
       </c>
       <c r="E249">
-        <v>4773678</v>
+        <v>3808515</v>
       </c>
       <c r="F249">
-        <v>251313</v>
+        <v>423065</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5377,16 +5377,16 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>193315</v>
+        <v>33445</v>
       </c>
       <c r="D250">
-        <v>4759853</v>
+        <v>5731129</v>
       </c>
       <c r="E250">
-        <v>4794474</v>
+        <v>3811969</v>
       </c>
       <c r="F250">
-        <v>252358</v>
+        <v>423457</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5397,16 +5397,16 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>181831</v>
+        <v>30982</v>
       </c>
       <c r="D251">
-        <v>4750357</v>
+        <v>5730080</v>
       </c>
       <c r="E251">
-        <v>4814360</v>
+        <v>3815152</v>
       </c>
       <c r="F251">
-        <v>253452</v>
+        <v>423786</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5417,16 +5417,16 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>170778</v>
+        <v>28715</v>
       </c>
       <c r="D252">
-        <v>4741797</v>
+        <v>5729133</v>
       </c>
       <c r="E252">
-        <v>4833058</v>
+        <v>3818050</v>
       </c>
       <c r="F252">
-        <v>254367</v>
+        <v>424102</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5437,16 +5437,16 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>160574</v>
+        <v>26579</v>
       </c>
       <c r="D253">
-        <v>4733439</v>
+        <v>5728241</v>
       </c>
       <c r="E253">
-        <v>4850725</v>
+        <v>3820772</v>
       </c>
       <c r="F253">
-        <v>255262</v>
+        <v>424408</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5457,16 +5457,16 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>150881</v>
+        <v>24620</v>
       </c>
       <c r="D254">
-        <v>4725736</v>
+        <v>5727404</v>
       </c>
       <c r="E254">
-        <v>4867247</v>
+        <v>3823274</v>
       </c>
       <c r="F254">
-        <v>256136</v>
+        <v>424702</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5477,16 +5477,16 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>141986</v>
+        <v>22806</v>
       </c>
       <c r="D255">
-        <v>4718299</v>
+        <v>5726646</v>
       </c>
       <c r="E255">
-        <v>4882794</v>
+        <v>3825569</v>
       </c>
       <c r="F255">
-        <v>256921</v>
+        <v>424979</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5497,16 +5497,16 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>133408</v>
+        <v>21149</v>
       </c>
       <c r="D256">
-        <v>4711498</v>
+        <v>5725924</v>
       </c>
       <c r="E256">
-        <v>4897444</v>
+        <v>3827720</v>
       </c>
       <c r="F256">
-        <v>257650</v>
+        <v>425207</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5517,16 +5517,16 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>125510</v>
+        <v>19563</v>
       </c>
       <c r="D257">
-        <v>4705011</v>
+        <v>5725269</v>
       </c>
       <c r="E257">
-        <v>4911084</v>
+        <v>3829747</v>
       </c>
       <c r="F257">
-        <v>258395</v>
+        <v>425421</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5537,16 +5537,16 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>117709</v>
+        <v>18122</v>
       </c>
       <c r="D258">
-        <v>4699042</v>
+        <v>5724666</v>
       </c>
       <c r="E258">
-        <v>4924183</v>
+        <v>3831594</v>
       </c>
       <c r="F258">
-        <v>259066</v>
+        <v>425618</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5557,16 +5557,16 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>110562</v>
+        <v>16907</v>
       </c>
       <c r="D259">
-        <v>4693442</v>
+        <v>5724090</v>
       </c>
       <c r="E259">
-        <v>4936265</v>
+        <v>3833182</v>
       </c>
       <c r="F259">
-        <v>259731</v>
+        <v>425821</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5577,16 +5577,16 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>103505</v>
+        <v>15672</v>
       </c>
       <c r="D260">
-        <v>4688294</v>
+        <v>5723576</v>
       </c>
       <c r="E260">
-        <v>4947867</v>
+        <v>3834758</v>
       </c>
       <c r="F260">
-        <v>260334</v>
+        <v>425994</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5597,16 +5597,16 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>97047</v>
+        <v>14520</v>
       </c>
       <c r="D261">
-        <v>4683457</v>
+        <v>5723069</v>
       </c>
       <c r="E261">
-        <v>4958575</v>
+        <v>3836254</v>
       </c>
       <c r="F261">
-        <v>260921</v>
+        <v>426157</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5617,16 +5617,16 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>91109</v>
+        <v>13412</v>
       </c>
       <c r="D262">
-        <v>4678826</v>
+        <v>5722630</v>
       </c>
       <c r="E262">
-        <v>4968608</v>
+        <v>3837646</v>
       </c>
       <c r="F262">
-        <v>261457</v>
+        <v>426312</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5637,16 +5637,16 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>85403</v>
+        <v>12428</v>
       </c>
       <c r="D263">
-        <v>4674450</v>
+        <v>5722217</v>
       </c>
       <c r="E263">
-        <v>4978163</v>
+        <v>3838903</v>
       </c>
       <c r="F263">
-        <v>261984</v>
+        <v>426452</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5657,16 +5657,16 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>79890</v>
+        <v>11581</v>
       </c>
       <c r="D264">
-        <v>4670467</v>
+        <v>5721806</v>
       </c>
       <c r="E264">
-        <v>4987162</v>
+        <v>3840042</v>
       </c>
       <c r="F264">
-        <v>262481</v>
+        <v>426571</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5677,16 +5677,16 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>75123</v>
+        <v>10730</v>
       </c>
       <c r="D265">
-        <v>4666674</v>
+        <v>5721472</v>
       </c>
       <c r="E265">
-        <v>4995301</v>
+        <v>3841102</v>
       </c>
       <c r="F265">
-        <v>262902</v>
+        <v>426696</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5697,16 +5697,16 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>70350</v>
+        <v>10009</v>
       </c>
       <c r="D266">
-        <v>4663089</v>
+        <v>5721120</v>
       </c>
       <c r="E266">
-        <v>5003263</v>
+        <v>3842088</v>
       </c>
       <c r="F266">
-        <v>263298</v>
+        <v>426783</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5717,16 +5717,16 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>66016</v>
+        <v>9259</v>
       </c>
       <c r="D267">
-        <v>4659720</v>
+        <v>5720821</v>
       </c>
       <c r="E267">
-        <v>5010581</v>
+        <v>3843030</v>
       </c>
       <c r="F267">
-        <v>263683</v>
+        <v>426890</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5737,16 +5737,16 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>61635</v>
+        <v>8580</v>
       </c>
       <c r="D268">
-        <v>4656664</v>
+        <v>5720553</v>
       </c>
       <c r="E268">
-        <v>5017682</v>
+        <v>3843881</v>
       </c>
       <c r="F268">
-        <v>264019</v>
+        <v>426986</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5757,16 +5757,16 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>57641</v>
+        <v>7928</v>
       </c>
       <c r="D269">
-        <v>4653857</v>
+        <v>5720313</v>
       </c>
       <c r="E269">
-        <v>5024143</v>
+        <v>3844680</v>
       </c>
       <c r="F269">
-        <v>264359</v>
+        <v>427079</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5777,16 +5777,16 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>53837</v>
+        <v>7340</v>
       </c>
       <c r="D270">
-        <v>4651174</v>
+        <v>5720064</v>
       </c>
       <c r="E270">
-        <v>5030320</v>
+        <v>3845444</v>
       </c>
       <c r="F270">
-        <v>264669</v>
+        <v>427152</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5797,16 +5797,16 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>50478</v>
+        <v>6790</v>
       </c>
       <c r="D271">
-        <v>4648564</v>
+        <v>5719856</v>
       </c>
       <c r="E271">
-        <v>5035995</v>
+        <v>3846126</v>
       </c>
       <c r="F271">
-        <v>264963</v>
+        <v>427228</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5817,16 +5817,16 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>47200</v>
+        <v>6282</v>
       </c>
       <c r="D272">
-        <v>4646242</v>
+        <v>5719642</v>
       </c>
       <c r="E272">
-        <v>5041341</v>
+        <v>3846779</v>
       </c>
       <c r="F272">
-        <v>265217</v>
+        <v>427297</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5837,16 +5837,16 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>44298</v>
+        <v>5828</v>
       </c>
       <c r="D273">
-        <v>4643996</v>
+        <v>5719441</v>
       </c>
       <c r="E273">
-        <v>5046239</v>
+        <v>3847366</v>
       </c>
       <c r="F273">
-        <v>265467</v>
+        <v>427365</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5857,16 +5857,16 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>41485</v>
+        <v>5407</v>
       </c>
       <c r="D274">
-        <v>4641972</v>
+        <v>5719259</v>
       </c>
       <c r="E274">
-        <v>5050820</v>
+        <v>3847891</v>
       </c>
       <c r="F274">
-        <v>265723</v>
+        <v>427443</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5877,16 +5877,16 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>38792</v>
+        <v>5010</v>
       </c>
       <c r="D275">
-        <v>4640034</v>
+        <v>5719080</v>
       </c>
       <c r="E275">
-        <v>5055201</v>
+        <v>3848408</v>
       </c>
       <c r="F275">
-        <v>265973</v>
+        <v>427502</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5897,16 +5897,16 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>36221</v>
+        <v>4650</v>
       </c>
       <c r="D276">
-        <v>4638229</v>
+        <v>5718926</v>
       </c>
       <c r="E276">
-        <v>5059360</v>
+        <v>3848875</v>
       </c>
       <c r="F276">
-        <v>266190</v>
+        <v>427549</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5917,16 +5917,16 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>33971</v>
+        <v>4281</v>
       </c>
       <c r="D277">
-        <v>4636496</v>
+        <v>5718788</v>
       </c>
       <c r="E277">
-        <v>5063149</v>
+        <v>3849330</v>
       </c>
       <c r="F277">
-        <v>266384</v>
+        <v>427601</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5937,16 +5937,16 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>31779</v>
+        <v>3975</v>
       </c>
       <c r="D278">
-        <v>4634895</v>
+        <v>5718655</v>
       </c>
       <c r="E278">
-        <v>5066737</v>
+        <v>3849727</v>
       </c>
       <c r="F278">
-        <v>266589</v>
+        <v>427643</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5957,16 +5957,16 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>29645</v>
+        <v>3688</v>
       </c>
       <c r="D279">
-        <v>4633444</v>
+        <v>5718529</v>
       </c>
       <c r="E279">
-        <v>5070121</v>
+        <v>3850087</v>
       </c>
       <c r="F279">
-        <v>266790</v>
+        <v>427696</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5977,16 +5977,16 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>27691</v>
+        <v>3400</v>
       </c>
       <c r="D280">
-        <v>4632029</v>
+        <v>5718406</v>
       </c>
       <c r="E280">
-        <v>5073324</v>
+        <v>3850450</v>
       </c>
       <c r="F280">
-        <v>266956</v>
+        <v>427744</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -5997,16 +5997,16 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>25890</v>
+        <v>3179</v>
       </c>
       <c r="D281">
-        <v>4630774</v>
+        <v>5718293</v>
       </c>
       <c r="E281">
-        <v>5076214</v>
+        <v>3850745</v>
       </c>
       <c r="F281">
-        <v>267122</v>
+        <v>427783</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6017,16 +6017,16 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>24286</v>
+        <v>2928</v>
       </c>
       <c r="D282">
-        <v>4629571</v>
+        <v>5718192</v>
       </c>
       <c r="E282">
-        <v>5078870</v>
+        <v>3851063</v>
       </c>
       <c r="F282">
-        <v>267273</v>
+        <v>427817</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6037,16 +6037,16 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>22719</v>
+        <v>2741</v>
       </c>
       <c r="D283">
-        <v>4628455</v>
+        <v>5718080</v>
       </c>
       <c r="E283">
-        <v>5081404</v>
+        <v>3851331</v>
       </c>
       <c r="F283">
-        <v>267422</v>
+        <v>427848</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6057,16 +6057,16 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>21098</v>
+        <v>2560</v>
       </c>
       <c r="D284">
-        <v>4627466</v>
+        <v>5717993</v>
       </c>
       <c r="E284">
-        <v>5083899</v>
+        <v>3851561</v>
       </c>
       <c r="F284">
-        <v>267537</v>
+        <v>427886</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6077,16 +6077,16 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>19766</v>
+        <v>2393</v>
       </c>
       <c r="D285">
-        <v>4626476</v>
+        <v>5717920</v>
       </c>
       <c r="E285">
-        <v>5086112</v>
+        <v>3851777</v>
       </c>
       <c r="F285">
-        <v>267646</v>
+        <v>427910</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6097,16 +6097,16 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>18455</v>
+        <v>2234</v>
       </c>
       <c r="D286">
-        <v>4625541</v>
+        <v>5717830</v>
       </c>
       <c r="E286">
-        <v>5088241</v>
+        <v>3852001</v>
       </c>
       <c r="F286">
-        <v>267763</v>
+        <v>427935</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6117,16 +6117,16 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>17298</v>
+        <v>2097</v>
       </c>
       <c r="D287">
-        <v>4624674</v>
+        <v>5717759</v>
       </c>
       <c r="E287">
-        <v>5090155</v>
+        <v>3852187</v>
       </c>
       <c r="F287">
-        <v>267873</v>
+        <v>427957</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6137,16 +6137,16 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>16181</v>
+        <v>1952</v>
       </c>
       <c r="D288">
-        <v>4623853</v>
+        <v>5717690</v>
       </c>
       <c r="E288">
-        <v>5092005</v>
+        <v>3852379</v>
       </c>
       <c r="F288">
-        <v>267961</v>
+        <v>427979</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6157,16 +6157,16 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>15130</v>
+        <v>1816</v>
       </c>
       <c r="D289">
-        <v>4623099</v>
+        <v>5717625</v>
       </c>
       <c r="E289">
-        <v>5093724</v>
+        <v>3852567</v>
       </c>
       <c r="F289">
-        <v>268047</v>
+        <v>427992</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6177,16 +6177,16 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>14125</v>
+        <v>1687</v>
       </c>
       <c r="D290">
-        <v>4622371</v>
+        <v>5717572</v>
       </c>
       <c r="E290">
-        <v>5095381</v>
+        <v>3852734</v>
       </c>
       <c r="F290">
-        <v>268123</v>
+        <v>428007</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6197,16 +6197,16 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>13149</v>
+        <v>1566</v>
       </c>
       <c r="D291">
-        <v>4621746</v>
+        <v>5717514</v>
       </c>
       <c r="E291">
-        <v>5096901</v>
+        <v>3852893</v>
       </c>
       <c r="F291">
-        <v>268204</v>
+        <v>428027</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6217,16 +6217,16 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>12317</v>
+        <v>1456</v>
       </c>
       <c r="D292">
-        <v>4621127</v>
+        <v>5717470</v>
       </c>
       <c r="E292">
-        <v>5098268</v>
+        <v>3853034</v>
       </c>
       <c r="F292">
-        <v>268288</v>
+        <v>428040</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6237,16 +6237,16 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>11485</v>
+        <v>1362</v>
       </c>
       <c r="D293">
-        <v>4620544</v>
+        <v>5717426</v>
       </c>
       <c r="E293">
-        <v>5099604</v>
+        <v>3853159</v>
       </c>
       <c r="F293">
-        <v>268367</v>
+        <v>428053</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6257,16 +6257,16 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>10744</v>
+        <v>1270</v>
       </c>
       <c r="D294">
-        <v>4620030</v>
+        <v>5717385</v>
       </c>
       <c r="E294">
-        <v>5100794</v>
+        <v>3853285</v>
       </c>
       <c r="F294">
-        <v>268432</v>
+        <v>428060</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6277,16 +6277,16 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>10019</v>
+        <v>1186</v>
       </c>
       <c r="D295">
-        <v>4619552</v>
+        <v>5717343</v>
       </c>
       <c r="E295">
-        <v>5101938</v>
+        <v>3853394</v>
       </c>
       <c r="F295">
-        <v>268491</v>
+        <v>428077</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6297,16 +6297,16 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>9371</v>
+        <v>1092</v>
       </c>
       <c r="D296">
-        <v>4619084</v>
+        <v>5717314</v>
       </c>
       <c r="E296">
-        <v>5102989</v>
+        <v>3853508</v>
       </c>
       <c r="F296">
-        <v>268556</v>
+        <v>428086</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6317,16 +6317,16 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>8846</v>
+        <v>1013</v>
       </c>
       <c r="D297">
-        <v>4618620</v>
+        <v>5717280</v>
       </c>
       <c r="E297">
-        <v>5103930</v>
+        <v>3853608</v>
       </c>
       <c r="F297">
-        <v>268604</v>
+        <v>428099</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6337,16 +6337,16 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>8238</v>
+        <v>945</v>
       </c>
       <c r="D298">
-        <v>4618238</v>
+        <v>5717247</v>
       </c>
       <c r="E298">
-        <v>5104868</v>
+        <v>3853699</v>
       </c>
       <c r="F298">
-        <v>268656</v>
+        <v>428109</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6357,16 +6357,16 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>7703</v>
+        <v>859</v>
       </c>
       <c r="D299">
-        <v>4617838</v>
+        <v>5717221</v>
       </c>
       <c r="E299">
-        <v>5105745</v>
+        <v>3853801</v>
       </c>
       <c r="F299">
-        <v>268714</v>
+        <v>428119</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6377,16 +6377,16 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>7187</v>
+        <v>801</v>
       </c>
       <c r="D300">
-        <v>4617487</v>
+        <v>5717192</v>
       </c>
       <c r="E300">
-        <v>5106559</v>
+        <v>3853882</v>
       </c>
       <c r="F300">
-        <v>268767</v>
+        <v>428125</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6397,16 +6397,1216 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>6696</v>
+        <v>755</v>
       </c>
       <c r="D301">
-        <v>4617157</v>
+        <v>5717165</v>
       </c>
       <c r="E301">
-        <v>5107339</v>
+        <v>3853942</v>
       </c>
       <c r="F301">
-        <v>268808</v>
+        <v>428138</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>300</v>
+      </c>
+      <c r="C302">
+        <v>690</v>
+      </c>
+      <c r="D302">
+        <v>5717140</v>
+      </c>
+      <c r="E302">
+        <v>3854026</v>
+      </c>
+      <c r="F302">
+        <v>428144</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>301</v>
+      </c>
+      <c r="C303">
+        <v>635</v>
+      </c>
+      <c r="D303">
+        <v>5717124</v>
+      </c>
+      <c r="E303">
+        <v>3854090</v>
+      </c>
+      <c r="F303">
+        <v>428151</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>302</v>
+      </c>
+      <c r="C304">
+        <v>579</v>
+      </c>
+      <c r="D304">
+        <v>5717111</v>
+      </c>
+      <c r="E304">
+        <v>3854150</v>
+      </c>
+      <c r="F304">
+        <v>428160</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>303</v>
+      </c>
+      <c r="C305">
+        <v>531</v>
+      </c>
+      <c r="D305">
+        <v>5717094</v>
+      </c>
+      <c r="E305">
+        <v>3854208</v>
+      </c>
+      <c r="F305">
+        <v>428167</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>304</v>
+      </c>
+      <c r="C306">
+        <v>489</v>
+      </c>
+      <c r="D306">
+        <v>5717083</v>
+      </c>
+      <c r="E306">
+        <v>3854256</v>
+      </c>
+      <c r="F306">
+        <v>428172</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>305</v>
+      </c>
+      <c r="C307">
+        <v>443</v>
+      </c>
+      <c r="D307">
+        <v>5717071</v>
+      </c>
+      <c r="E307">
+        <v>3854308</v>
+      </c>
+      <c r="F307">
+        <v>428178</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>306</v>
+      </c>
+      <c r="C308">
+        <v>413</v>
+      </c>
+      <c r="D308">
+        <v>5717057</v>
+      </c>
+      <c r="E308">
+        <v>3854347</v>
+      </c>
+      <c r="F308">
+        <v>428183</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>307</v>
+      </c>
+      <c r="C309">
+        <v>379</v>
+      </c>
+      <c r="D309">
+        <v>5717047</v>
+      </c>
+      <c r="E309">
+        <v>3854387</v>
+      </c>
+      <c r="F309">
+        <v>428187</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>308</v>
+      </c>
+      <c r="C310">
+        <v>344</v>
+      </c>
+      <c r="D310">
+        <v>5717041</v>
+      </c>
+      <c r="E310">
+        <v>3854426</v>
+      </c>
+      <c r="F310">
+        <v>428189</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>309</v>
+      </c>
+      <c r="C311">
+        <v>308</v>
+      </c>
+      <c r="D311">
+        <v>5717035</v>
+      </c>
+      <c r="E311">
+        <v>3854461</v>
+      </c>
+      <c r="F311">
+        <v>428196</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>310</v>
+      </c>
+      <c r="C312">
+        <v>284</v>
+      </c>
+      <c r="D312">
+        <v>5717030</v>
+      </c>
+      <c r="E312">
+        <v>3854485</v>
+      </c>
+      <c r="F312">
+        <v>428201</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>311</v>
+      </c>
+      <c r="C313">
+        <v>261</v>
+      </c>
+      <c r="D313">
+        <v>5717019</v>
+      </c>
+      <c r="E313">
+        <v>3854516</v>
+      </c>
+      <c r="F313">
+        <v>428204</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>312</v>
+      </c>
+      <c r="C314">
+        <v>235</v>
+      </c>
+      <c r="D314">
+        <v>5717012</v>
+      </c>
+      <c r="E314">
+        <v>3854543</v>
+      </c>
+      <c r="F314">
+        <v>428210</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>313</v>
+      </c>
+      <c r="C315">
+        <v>216</v>
+      </c>
+      <c r="D315">
+        <v>5717005</v>
+      </c>
+      <c r="E315">
+        <v>3854566</v>
+      </c>
+      <c r="F315">
+        <v>428213</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>314</v>
+      </c>
+      <c r="C316">
+        <v>193</v>
+      </c>
+      <c r="D316">
+        <v>5716999</v>
+      </c>
+      <c r="E316">
+        <v>3854592</v>
+      </c>
+      <c r="F316">
+        <v>428216</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>315</v>
+      </c>
+      <c r="C317">
+        <v>173</v>
+      </c>
+      <c r="D317">
+        <v>5716992</v>
+      </c>
+      <c r="E317">
+        <v>3854616</v>
+      </c>
+      <c r="F317">
+        <v>428219</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>316</v>
+      </c>
+      <c r="C318">
+        <v>153</v>
+      </c>
+      <c r="D318">
+        <v>5716987</v>
+      </c>
+      <c r="E318">
+        <v>3854640</v>
+      </c>
+      <c r="F318">
+        <v>428220</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>317</v>
+      </c>
+      <c r="C319">
+        <v>141</v>
+      </c>
+      <c r="D319">
+        <v>5716983</v>
+      </c>
+      <c r="E319">
+        <v>3854652</v>
+      </c>
+      <c r="F319">
+        <v>428224</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>318</v>
+      </c>
+      <c r="C320">
+        <v>132</v>
+      </c>
+      <c r="D320">
+        <v>5716979</v>
+      </c>
+      <c r="E320">
+        <v>3854663</v>
+      </c>
+      <c r="F320">
+        <v>428226</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>319</v>
+      </c>
+      <c r="C321">
+        <v>121</v>
+      </c>
+      <c r="D321">
+        <v>5716973</v>
+      </c>
+      <c r="E321">
+        <v>3854679</v>
+      </c>
+      <c r="F321">
+        <v>428227</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>320</v>
+      </c>
+      <c r="C322">
+        <v>115</v>
+      </c>
+      <c r="D322">
+        <v>5716968</v>
+      </c>
+      <c r="E322">
+        <v>3854688</v>
+      </c>
+      <c r="F322">
+        <v>428229</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>321</v>
+      </c>
+      <c r="C323">
+        <v>107</v>
+      </c>
+      <c r="D323">
+        <v>5716964</v>
+      </c>
+      <c r="E323">
+        <v>3854699</v>
+      </c>
+      <c r="F323">
+        <v>428230</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>322</v>
+      </c>
+      <c r="C324">
+        <v>102</v>
+      </c>
+      <c r="D324">
+        <v>5716955</v>
+      </c>
+      <c r="E324">
+        <v>3854710</v>
+      </c>
+      <c r="F324">
+        <v>428233</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>323</v>
+      </c>
+      <c r="C325">
+        <v>93</v>
+      </c>
+      <c r="D325">
+        <v>5716954</v>
+      </c>
+      <c r="E325">
+        <v>3854719</v>
+      </c>
+      <c r="F325">
+        <v>428234</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>324</v>
+      </c>
+      <c r="C326">
+        <v>91</v>
+      </c>
+      <c r="D326">
+        <v>5716950</v>
+      </c>
+      <c r="E326">
+        <v>3854724</v>
+      </c>
+      <c r="F326">
+        <v>428235</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>325</v>
+      </c>
+      <c r="C327">
+        <v>87</v>
+      </c>
+      <c r="D327">
+        <v>5716948</v>
+      </c>
+      <c r="E327">
+        <v>3854729</v>
+      </c>
+      <c r="F327">
+        <v>428236</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>326</v>
+      </c>
+      <c r="C328">
+        <v>82</v>
+      </c>
+      <c r="D328">
+        <v>5716948</v>
+      </c>
+      <c r="E328">
+        <v>3854733</v>
+      </c>
+      <c r="F328">
+        <v>428237</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>327</v>
+      </c>
+      <c r="C329">
+        <v>76</v>
+      </c>
+      <c r="D329">
+        <v>5716943</v>
+      </c>
+      <c r="E329">
+        <v>3854743</v>
+      </c>
+      <c r="F329">
+        <v>428238</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>328</v>
+      </c>
+      <c r="C330">
+        <v>74</v>
+      </c>
+      <c r="D330">
+        <v>5716938</v>
+      </c>
+      <c r="E330">
+        <v>3854750</v>
+      </c>
+      <c r="F330">
+        <v>428238</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>329</v>
+      </c>
+      <c r="C331">
+        <v>69</v>
+      </c>
+      <c r="D331">
+        <v>5716936</v>
+      </c>
+      <c r="E331">
+        <v>3854755</v>
+      </c>
+      <c r="F331">
+        <v>428240</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>330</v>
+      </c>
+      <c r="C332">
+        <v>66</v>
+      </c>
+      <c r="D332">
+        <v>5716933</v>
+      </c>
+      <c r="E332">
+        <v>3854760</v>
+      </c>
+      <c r="F332">
+        <v>428241</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>331</v>
+      </c>
+      <c r="C333">
+        <v>61</v>
+      </c>
+      <c r="D333">
+        <v>5716931</v>
+      </c>
+      <c r="E333">
+        <v>3854766</v>
+      </c>
+      <c r="F333">
+        <v>428242</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>332</v>
+      </c>
+      <c r="C334">
+        <v>57</v>
+      </c>
+      <c r="D334">
+        <v>5716930</v>
+      </c>
+      <c r="E334">
+        <v>3854771</v>
+      </c>
+      <c r="F334">
+        <v>428242</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>333</v>
+      </c>
+      <c r="C335">
+        <v>54</v>
+      </c>
+      <c r="D335">
+        <v>5716929</v>
+      </c>
+      <c r="E335">
+        <v>3854774</v>
+      </c>
+      <c r="F335">
+        <v>428243</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>334</v>
+      </c>
+      <c r="C336">
+        <v>51</v>
+      </c>
+      <c r="D336">
+        <v>5716928</v>
+      </c>
+      <c r="E336">
+        <v>3854778</v>
+      </c>
+      <c r="F336">
+        <v>428243</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>335</v>
+      </c>
+      <c r="C337">
+        <v>45</v>
+      </c>
+      <c r="D337">
+        <v>5716928</v>
+      </c>
+      <c r="E337">
+        <v>3854782</v>
+      </c>
+      <c r="F337">
+        <v>428245</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>336</v>
+      </c>
+      <c r="C338">
+        <v>41</v>
+      </c>
+      <c r="D338">
+        <v>5716927</v>
+      </c>
+      <c r="E338">
+        <v>3854787</v>
+      </c>
+      <c r="F338">
+        <v>428245</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>337</v>
+      </c>
+      <c r="C339">
+        <v>38</v>
+      </c>
+      <c r="D339">
+        <v>5716926</v>
+      </c>
+      <c r="E339">
+        <v>3854791</v>
+      </c>
+      <c r="F339">
+        <v>428245</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>338</v>
+      </c>
+      <c r="C340">
+        <v>32</v>
+      </c>
+      <c r="D340">
+        <v>5716923</v>
+      </c>
+      <c r="E340">
+        <v>3854800</v>
+      </c>
+      <c r="F340">
+        <v>428245</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>339</v>
+      </c>
+      <c r="C341">
+        <v>31</v>
+      </c>
+      <c r="D341">
+        <v>5716923</v>
+      </c>
+      <c r="E341">
+        <v>3854801</v>
+      </c>
+      <c r="F341">
+        <v>428245</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>340</v>
+      </c>
+      <c r="C342">
+        <v>28</v>
+      </c>
+      <c r="D342">
+        <v>5716922</v>
+      </c>
+      <c r="E342">
+        <v>3854804</v>
+      </c>
+      <c r="F342">
+        <v>428246</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>341</v>
+      </c>
+      <c r="C343">
+        <v>27</v>
+      </c>
+      <c r="D343">
+        <v>5716921</v>
+      </c>
+      <c r="E343">
+        <v>3854805</v>
+      </c>
+      <c r="F343">
+        <v>428247</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>342</v>
+      </c>
+      <c r="C344">
+        <v>27</v>
+      </c>
+      <c r="D344">
+        <v>5716921</v>
+      </c>
+      <c r="E344">
+        <v>3854805</v>
+      </c>
+      <c r="F344">
+        <v>428247</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>343</v>
+      </c>
+      <c r="C345">
+        <v>22</v>
+      </c>
+      <c r="D345">
+        <v>5716921</v>
+      </c>
+      <c r="E345">
+        <v>3854810</v>
+      </c>
+      <c r="F345">
+        <v>428247</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>344</v>
+      </c>
+      <c r="C346">
+        <v>18</v>
+      </c>
+      <c r="D346">
+        <v>5716920</v>
+      </c>
+      <c r="E346">
+        <v>3854814</v>
+      </c>
+      <c r="F346">
+        <v>428248</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>345</v>
+      </c>
+      <c r="C347">
+        <v>17</v>
+      </c>
+      <c r="D347">
+        <v>5716919</v>
+      </c>
+      <c r="E347">
+        <v>3854815</v>
+      </c>
+      <c r="F347">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>346</v>
+      </c>
+      <c r="C348">
+        <v>14</v>
+      </c>
+      <c r="D348">
+        <v>5716919</v>
+      </c>
+      <c r="E348">
+        <v>3854818</v>
+      </c>
+      <c r="F348">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>347</v>
+      </c>
+      <c r="C349">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <v>5716919</v>
+      </c>
+      <c r="E349">
+        <v>3854820</v>
+      </c>
+      <c r="F349">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>348</v>
+      </c>
+      <c r="C350">
+        <v>12</v>
+      </c>
+      <c r="D350">
+        <v>5716918</v>
+      </c>
+      <c r="E350">
+        <v>3854821</v>
+      </c>
+      <c r="F350">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>349</v>
+      </c>
+      <c r="C351">
+        <v>12</v>
+      </c>
+      <c r="D351">
+        <v>5716917</v>
+      </c>
+      <c r="E351">
+        <v>3854822</v>
+      </c>
+      <c r="F351">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>350</v>
+      </c>
+      <c r="C352">
+        <v>11</v>
+      </c>
+      <c r="D352">
+        <v>5716917</v>
+      </c>
+      <c r="E352">
+        <v>3854823</v>
+      </c>
+      <c r="F352">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>351</v>
+      </c>
+      <c r="C353">
+        <v>11</v>
+      </c>
+      <c r="D353">
+        <v>5716917</v>
+      </c>
+      <c r="E353">
+        <v>3854823</v>
+      </c>
+      <c r="F353">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>352</v>
+      </c>
+      <c r="C354">
+        <v>10</v>
+      </c>
+      <c r="D354">
+        <v>5716917</v>
+      </c>
+      <c r="E354">
+        <v>3854824</v>
+      </c>
+      <c r="F354">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>353</v>
+      </c>
+      <c r="C355">
+        <v>9</v>
+      </c>
+      <c r="D355">
+        <v>5716917</v>
+      </c>
+      <c r="E355">
+        <v>3854825</v>
+      </c>
+      <c r="F355">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>354</v>
+      </c>
+      <c r="C356">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>5716917</v>
+      </c>
+      <c r="E356">
+        <v>3854828</v>
+      </c>
+      <c r="F356">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>355</v>
+      </c>
+      <c r="C357">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>5716917</v>
+      </c>
+      <c r="E357">
+        <v>3854828</v>
+      </c>
+      <c r="F357">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>356</v>
+      </c>
+      <c r="C358">
+        <v>5</v>
+      </c>
+      <c r="D358">
+        <v>5716917</v>
+      </c>
+      <c r="E358">
+        <v>3854829</v>
+      </c>
+      <c r="F358">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>357</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359">
+        <v>5716917</v>
+      </c>
+      <c r="E359">
+        <v>3854830</v>
+      </c>
+      <c r="F359">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>358</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360">
+        <v>5716917</v>
+      </c>
+      <c r="E360">
+        <v>3854830</v>
+      </c>
+      <c r="F360">
+        <v>428249</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>359</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+      <c r="D361">
+        <v>5716917</v>
+      </c>
+      <c r="E361">
+        <v>3854830</v>
+      </c>
+      <c r="F361">
+        <v>428249</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados2.xlsx
+++ b/Resultados2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>9999995</v>
+        <v>9999996</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>9999995</v>
+        <v>9999996</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>9999994</v>
+        <v>9999993</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>9999994</v>
+        <v>9999992</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>9999993</v>
+        <v>9999992</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>9999989</v>
+        <v>9999990</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>9999988</v>
+        <v>9999989</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>9999985</v>
+        <v>9999984</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>9999982</v>
+        <v>9999980</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>9999980</v>
+        <v>9999975</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>9999977</v>
+        <v>9999964</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>9999973</v>
+        <v>9999956</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -797,13 +797,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>9999970</v>
+        <v>9999950</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>9999966</v>
+        <v>9999943</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -837,16 +837,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>9999964</v>
+        <v>9999937</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>9999961</v>
+        <v>9999933</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>9999955</v>
+        <v>9999927</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>9999950</v>
+        <v>9999923</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -917,16 +917,16 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>9999945</v>
+        <v>9999918</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -937,16 +937,16 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>9999940</v>
+        <v>9999910</v>
       </c>
       <c r="E28">
         <v>9</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -957,16 +957,16 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>9999938</v>
+        <v>9999899</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -977,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D30">
-        <v>9999931</v>
+        <v>9999891</v>
       </c>
       <c r="E30">
         <v>12</v>
@@ -997,13 +997,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D31">
-        <v>9999929</v>
+        <v>9999886</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1017,16 +1017,16 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D32">
-        <v>9999922</v>
+        <v>9999871</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1037,16 +1037,16 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>9999915</v>
+        <v>9999860</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1057,16 +1057,16 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D34">
-        <v>9999904</v>
+        <v>9999849</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1077,13 +1077,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>9999900</v>
+        <v>9999839</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1097,16 +1097,16 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D36">
-        <v>9999893</v>
+        <v>9999825</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1117,16 +1117,16 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D37">
-        <v>9999887</v>
+        <v>9999809</v>
       </c>
       <c r="E37">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1137,16 +1137,16 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D38">
-        <v>9999882</v>
+        <v>9999795</v>
       </c>
       <c r="E38">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1157,13 +1157,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D39">
-        <v>9999877</v>
+        <v>9999771</v>
       </c>
       <c r="E39">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>7</v>
@@ -1177,16 +1177,16 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D40">
-        <v>9999868</v>
+        <v>9999757</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1197,13 +1197,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="D41">
-        <v>9999859</v>
+        <v>9999728</v>
       </c>
       <c r="E41">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1217,16 +1217,16 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="D42">
-        <v>9999848</v>
+        <v>9999706</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1237,16 +1237,16 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="D43">
-        <v>9999833</v>
+        <v>9999683</v>
       </c>
       <c r="E43">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1257,13 +1257,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="D44">
-        <v>9999822</v>
+        <v>9999653</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -1277,13 +1277,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="D45">
-        <v>9999807</v>
+        <v>9999619</v>
       </c>
       <c r="E45">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -1297,16 +1297,16 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="D46">
-        <v>9999790</v>
+        <v>9999579</v>
       </c>
       <c r="E46">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1317,16 +1317,16 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="D47">
-        <v>9999780</v>
+        <v>9999541</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="D48">
-        <v>9999770</v>
+        <v>9999501</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1357,16 +1357,16 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="D49">
-        <v>9999747</v>
+        <v>9999456</v>
       </c>
       <c r="E49">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1377,16 +1377,16 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>178</v>
+        <v>440</v>
       </c>
       <c r="D50">
-        <v>9999726</v>
+        <v>9999409</v>
       </c>
       <c r="E50">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1397,16 +1397,16 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>194</v>
+        <v>487</v>
       </c>
       <c r="D51">
-        <v>9999706</v>
+        <v>9999352</v>
       </c>
       <c r="E51">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1417,16 +1417,16 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>205</v>
+        <v>535</v>
       </c>
       <c r="D52">
-        <v>9999688</v>
+        <v>9999290</v>
       </c>
       <c r="E52">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1437,16 +1437,16 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>225</v>
+        <v>569</v>
       </c>
       <c r="D53">
-        <v>9999662</v>
+        <v>9999240</v>
       </c>
       <c r="E53">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1457,16 +1457,16 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>242</v>
+        <v>620</v>
       </c>
       <c r="D54">
-        <v>9999640</v>
+        <v>9999175</v>
       </c>
       <c r="E54">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1477,16 +1477,16 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>264</v>
+        <v>666</v>
       </c>
       <c r="D55">
-        <v>9999613</v>
+        <v>9999105</v>
       </c>
       <c r="E55">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1497,16 +1497,16 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>284</v>
+        <v>728</v>
       </c>
       <c r="D56">
-        <v>9999584</v>
+        <v>9999029</v>
       </c>
       <c r="E56">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1517,16 +1517,16 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>316</v>
+        <v>786</v>
       </c>
       <c r="D57">
-        <v>9999543</v>
+        <v>9998942</v>
       </c>
       <c r="E57">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="F57">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1537,16 +1537,16 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>336</v>
+        <v>847</v>
       </c>
       <c r="D58">
-        <v>9999512</v>
+        <v>9998859</v>
       </c>
       <c r="E58">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1557,16 +1557,16 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>365</v>
+        <v>909</v>
       </c>
       <c r="D59">
-        <v>9999468</v>
+        <v>9998774</v>
       </c>
       <c r="E59">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1577,16 +1577,16 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>388</v>
+        <v>996</v>
       </c>
       <c r="D60">
-        <v>9999434</v>
+        <v>9998657</v>
       </c>
       <c r="E60">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1597,16 +1597,16 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>427</v>
+        <v>1074</v>
       </c>
       <c r="D61">
-        <v>9999380</v>
+        <v>9998545</v>
       </c>
       <c r="E61">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1617,16 +1617,16 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>449</v>
+        <v>1157</v>
       </c>
       <c r="D62">
-        <v>9999341</v>
+        <v>9998422</v>
       </c>
       <c r="E62">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="F62">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1637,16 +1637,16 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>496</v>
+        <v>1246</v>
       </c>
       <c r="D63">
-        <v>9999284</v>
+        <v>9998295</v>
       </c>
       <c r="E63">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="F63">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1657,16 +1657,16 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>541</v>
+        <v>1352</v>
       </c>
       <c r="D64">
-        <v>9999229</v>
+        <v>9998149</v>
       </c>
       <c r="E64">
-        <v>211</v>
+        <v>442</v>
       </c>
       <c r="F64">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1677,16 +1677,16 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>588</v>
+        <v>1471</v>
       </c>
       <c r="D65">
-        <v>9999159</v>
+        <v>9997985</v>
       </c>
       <c r="E65">
-        <v>232</v>
+        <v>481</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1697,16 +1697,16 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>620</v>
+        <v>1586</v>
       </c>
       <c r="D66">
-        <v>9999106</v>
+        <v>9997823</v>
       </c>
       <c r="E66">
-        <v>251</v>
+        <v>523</v>
       </c>
       <c r="F66">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1717,16 +1717,16 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>667</v>
+        <v>1703</v>
       </c>
       <c r="D67">
-        <v>9999039</v>
+        <v>9997649</v>
       </c>
       <c r="E67">
-        <v>269</v>
+        <v>577</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1737,16 +1737,16 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>724</v>
+        <v>1823</v>
       </c>
       <c r="D68">
-        <v>9998964</v>
+        <v>9997467</v>
       </c>
       <c r="E68">
-        <v>287</v>
+        <v>631</v>
       </c>
       <c r="F68">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1757,16 +1757,16 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>785</v>
+        <v>1984</v>
       </c>
       <c r="D69">
-        <v>9998877</v>
+        <v>9997256</v>
       </c>
       <c r="E69">
-        <v>312</v>
+        <v>676</v>
       </c>
       <c r="F69">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1777,16 +1777,16 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>849</v>
+        <v>2137</v>
       </c>
       <c r="D70">
-        <v>9998791</v>
+        <v>9997038</v>
       </c>
       <c r="E70">
-        <v>330</v>
+        <v>735</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1797,16 +1797,16 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>918</v>
+        <v>2326</v>
       </c>
       <c r="D71">
-        <v>9998695</v>
+        <v>9996779</v>
       </c>
       <c r="E71">
-        <v>355</v>
+        <v>799</v>
       </c>
       <c r="F71">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1817,16 +1817,16 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>987</v>
+        <v>2516</v>
       </c>
       <c r="D72">
-        <v>9998597</v>
+        <v>9996513</v>
       </c>
       <c r="E72">
-        <v>382</v>
+        <v>872</v>
       </c>
       <c r="F72">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1837,16 +1837,16 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1049</v>
+        <v>2701</v>
       </c>
       <c r="D73">
-        <v>9998494</v>
+        <v>9996241</v>
       </c>
       <c r="E73">
-        <v>421</v>
+        <v>951</v>
       </c>
       <c r="F73">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1857,16 +1857,16 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>1130</v>
+        <v>2923</v>
       </c>
       <c r="D74">
-        <v>9998382</v>
+        <v>9995936</v>
       </c>
       <c r="E74">
-        <v>451</v>
+        <v>1024</v>
       </c>
       <c r="F74">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1877,16 +1877,16 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1217</v>
+        <v>3195</v>
       </c>
       <c r="D75">
-        <v>9998251</v>
+        <v>9995579</v>
       </c>
       <c r="E75">
-        <v>487</v>
+        <v>1104</v>
       </c>
       <c r="F75">
-        <v>45</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1897,16 +1897,16 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>1316</v>
+        <v>3421</v>
       </c>
       <c r="D76">
-        <v>9998118</v>
+        <v>9995236</v>
       </c>
       <c r="E76">
-        <v>518</v>
+        <v>1204</v>
       </c>
       <c r="F76">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1917,16 +1917,16 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1435</v>
+        <v>3702</v>
       </c>
       <c r="D77">
-        <v>9997945</v>
+        <v>9994843</v>
       </c>
       <c r="E77">
-        <v>564</v>
+        <v>1303</v>
       </c>
       <c r="F77">
-        <v>56</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1937,16 +1937,16 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1563</v>
+        <v>4044</v>
       </c>
       <c r="D78">
-        <v>9997778</v>
+        <v>9994378</v>
       </c>
       <c r="E78">
-        <v>596</v>
+        <v>1411</v>
       </c>
       <c r="F78">
-        <v>63</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1957,16 +1957,16 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1681</v>
+        <v>4414</v>
       </c>
       <c r="D79">
-        <v>9997603</v>
+        <v>9993881</v>
       </c>
       <c r="E79">
-        <v>645</v>
+        <v>1525</v>
       </c>
       <c r="F79">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1977,16 +1977,16 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1809</v>
+        <v>4766</v>
       </c>
       <c r="D80">
-        <v>9997420</v>
+        <v>9993383</v>
       </c>
       <c r="E80">
-        <v>694</v>
+        <v>1661</v>
       </c>
       <c r="F80">
-        <v>77</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1997,16 +1997,16 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1954</v>
+        <v>5163</v>
       </c>
       <c r="D81">
-        <v>9997205</v>
+        <v>9992822</v>
       </c>
       <c r="E81">
-        <v>755</v>
+        <v>1813</v>
       </c>
       <c r="F81">
-        <v>86</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2017,16 +2017,16 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>2102</v>
+        <v>5610</v>
       </c>
       <c r="D82">
-        <v>9997004</v>
+        <v>9992213</v>
       </c>
       <c r="E82">
-        <v>802</v>
+        <v>1963</v>
       </c>
       <c r="F82">
-        <v>92</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2037,16 +2037,16 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>2269</v>
+        <v>6078</v>
       </c>
       <c r="D83">
-        <v>9996770</v>
+        <v>9991571</v>
       </c>
       <c r="E83">
-        <v>868</v>
+        <v>2118</v>
       </c>
       <c r="F83">
-        <v>93</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2057,16 +2057,16 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>2450</v>
+        <v>6631</v>
       </c>
       <c r="D84">
-        <v>9996514</v>
+        <v>9990836</v>
       </c>
       <c r="E84">
-        <v>934</v>
+        <v>2283</v>
       </c>
       <c r="F84">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2077,16 +2077,16 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>2648</v>
+        <v>7201</v>
       </c>
       <c r="D85">
-        <v>9996229</v>
+        <v>9990055</v>
       </c>
       <c r="E85">
-        <v>1018</v>
+        <v>2484</v>
       </c>
       <c r="F85">
-        <v>105</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2097,16 +2097,16 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>2867</v>
+        <v>7791</v>
       </c>
       <c r="D86">
-        <v>9995924</v>
+        <v>9989247</v>
       </c>
       <c r="E86">
-        <v>1095</v>
+        <v>2679</v>
       </c>
       <c r="F86">
-        <v>114</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2117,16 +2117,16 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>3117</v>
+        <v>8382</v>
       </c>
       <c r="D87">
-        <v>9995578</v>
+        <v>9988397</v>
       </c>
       <c r="E87">
-        <v>1181</v>
+        <v>2917</v>
       </c>
       <c r="F87">
-        <v>124</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2137,16 +2137,16 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>3393</v>
+        <v>9104</v>
       </c>
       <c r="D88">
-        <v>9995204</v>
+        <v>9987409</v>
       </c>
       <c r="E88">
-        <v>1270</v>
+        <v>3158</v>
       </c>
       <c r="F88">
-        <v>133</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2157,16 +2157,16 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>3692</v>
+        <v>9873</v>
       </c>
       <c r="D89">
-        <v>9994802</v>
+        <v>9986368</v>
       </c>
       <c r="E89">
-        <v>1367</v>
+        <v>3405</v>
       </c>
       <c r="F89">
-        <v>139</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2177,16 +2177,16 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>4018</v>
+        <v>10678</v>
       </c>
       <c r="D90">
-        <v>9994364</v>
+        <v>9985258</v>
       </c>
       <c r="E90">
-        <v>1473</v>
+        <v>3688</v>
       </c>
       <c r="F90">
-        <v>145</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2197,16 +2197,16 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>4349</v>
+        <v>11466</v>
       </c>
       <c r="D91">
-        <v>9993902</v>
+        <v>9984113</v>
       </c>
       <c r="E91">
-        <v>1595</v>
+        <v>4014</v>
       </c>
       <c r="F91">
-        <v>154</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2217,16 +2217,16 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>4711</v>
+        <v>12342</v>
       </c>
       <c r="D92">
-        <v>9993407</v>
+        <v>9982894</v>
       </c>
       <c r="E92">
-        <v>1714</v>
+        <v>4327</v>
       </c>
       <c r="F92">
-        <v>168</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2237,16 +2237,16 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>5072</v>
+        <v>13329</v>
       </c>
       <c r="D93">
-        <v>9992873</v>
+        <v>9981514</v>
       </c>
       <c r="E93">
-        <v>1863</v>
+        <v>4683</v>
       </c>
       <c r="F93">
-        <v>192</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2257,16 +2257,16 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>5438</v>
+        <v>14365</v>
       </c>
       <c r="D94">
-        <v>9992340</v>
+        <v>9980013</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>5097</v>
       </c>
       <c r="F94">
-        <v>213</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2277,16 +2277,16 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>5860</v>
+        <v>15470</v>
       </c>
       <c r="D95">
-        <v>9991743</v>
+        <v>9978411</v>
       </c>
       <c r="E95">
-        <v>2168</v>
+        <v>5531</v>
       </c>
       <c r="F95">
-        <v>229</v>
+        <v>588</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2297,16 +2297,16 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>6370</v>
+        <v>16730</v>
       </c>
       <c r="D96">
-        <v>9991050</v>
+        <v>9976653</v>
       </c>
       <c r="E96">
-        <v>2341</v>
+        <v>5986</v>
       </c>
       <c r="F96">
-        <v>239</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2317,16 +2317,16 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>6877</v>
+        <v>17992</v>
       </c>
       <c r="D97">
-        <v>9990328</v>
+        <v>9974830</v>
       </c>
       <c r="E97">
-        <v>2536</v>
+        <v>6487</v>
       </c>
       <c r="F97">
-        <v>259</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2337,16 +2337,16 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>7454</v>
+        <v>19437</v>
       </c>
       <c r="D98">
-        <v>9989550</v>
+        <v>9972776</v>
       </c>
       <c r="E98">
-        <v>2721</v>
+        <v>7035</v>
       </c>
       <c r="F98">
-        <v>275</v>
+        <v>752</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2357,16 +2357,16 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>8059</v>
+        <v>21016</v>
       </c>
       <c r="D99">
-        <v>9988711</v>
+        <v>9970555</v>
       </c>
       <c r="E99">
-        <v>2932</v>
+        <v>7607</v>
       </c>
       <c r="F99">
-        <v>298</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>8720</v>
+        <v>22626</v>
       </c>
       <c r="D100">
-        <v>9987794</v>
+        <v>9968210</v>
       </c>
       <c r="E100">
-        <v>3169</v>
+        <v>8278</v>
       </c>
       <c r="F100">
-        <v>317</v>
+        <v>886</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2397,16 +2397,16 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>9439</v>
+        <v>24355</v>
       </c>
       <c r="D101">
-        <v>9986790</v>
+        <v>9965700</v>
       </c>
       <c r="E101">
-        <v>3432</v>
+        <v>8991</v>
       </c>
       <c r="F101">
-        <v>339</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2417,16 +2417,16 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>10249</v>
+        <v>26271</v>
       </c>
       <c r="D102">
-        <v>9985675</v>
+        <v>9962976</v>
       </c>
       <c r="E102">
-        <v>3708</v>
+        <v>9729</v>
       </c>
       <c r="F102">
-        <v>368</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2437,16 +2437,16 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>11079</v>
+        <v>28435</v>
       </c>
       <c r="D103">
-        <v>9984499</v>
+        <v>9959962</v>
       </c>
       <c r="E103">
-        <v>4025</v>
+        <v>10494</v>
       </c>
       <c r="F103">
-        <v>397</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2457,16 +2457,16 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>11974</v>
+        <v>30612</v>
       </c>
       <c r="D104">
-        <v>9983230</v>
+        <v>9956797</v>
       </c>
       <c r="E104">
-        <v>4357</v>
+        <v>11391</v>
       </c>
       <c r="F104">
-        <v>439</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2477,16 +2477,16 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>12901</v>
+        <v>33087</v>
       </c>
       <c r="D105">
-        <v>9981901</v>
+        <v>9953281</v>
       </c>
       <c r="E105">
-        <v>4707</v>
+        <v>12328</v>
       </c>
       <c r="F105">
-        <v>491</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2497,16 +2497,16 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>13922</v>
+        <v>35770</v>
       </c>
       <c r="D106">
-        <v>9980442</v>
+        <v>9949488</v>
       </c>
       <c r="E106">
-        <v>5118</v>
+        <v>13328</v>
       </c>
       <c r="F106">
-        <v>518</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2517,16 +2517,16 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>15101</v>
+        <v>38605</v>
       </c>
       <c r="D107">
-        <v>9978801</v>
+        <v>9945508</v>
       </c>
       <c r="E107">
-        <v>5533</v>
+        <v>14356</v>
       </c>
       <c r="F107">
-        <v>565</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2537,16 +2537,16 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>16281</v>
+        <v>41645</v>
       </c>
       <c r="D108">
-        <v>9977126</v>
+        <v>9941249</v>
       </c>
       <c r="E108">
-        <v>5988</v>
+        <v>15443</v>
       </c>
       <c r="F108">
-        <v>605</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2557,16 +2557,16 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>17590</v>
+        <v>44903</v>
       </c>
       <c r="D109">
-        <v>9975283</v>
+        <v>9936611</v>
       </c>
       <c r="E109">
-        <v>6472</v>
+        <v>16683</v>
       </c>
       <c r="F109">
-        <v>655</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2577,16 +2577,16 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>19016</v>
+        <v>48506</v>
       </c>
       <c r="D110">
-        <v>9973324</v>
+        <v>9931507</v>
       </c>
       <c r="E110">
-        <v>6945</v>
+        <v>18043</v>
       </c>
       <c r="F110">
-        <v>715</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2597,16 +2597,16 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>20589</v>
+        <v>52301</v>
       </c>
       <c r="D111">
-        <v>9971154</v>
+        <v>9926110</v>
       </c>
       <c r="E111">
-        <v>7478</v>
+        <v>19495</v>
       </c>
       <c r="F111">
-        <v>779</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2617,16 +2617,16 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>22244</v>
+        <v>56407</v>
       </c>
       <c r="D112">
-        <v>9968806</v>
+        <v>9920246</v>
       </c>
       <c r="E112">
-        <v>8100</v>
+        <v>21083</v>
       </c>
       <c r="F112">
-        <v>850</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2637,16 +2637,16 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>24089</v>
+        <v>60760</v>
       </c>
       <c r="D113">
-        <v>9966239</v>
+        <v>9914070</v>
       </c>
       <c r="E113">
-        <v>8759</v>
+        <v>22708</v>
       </c>
       <c r="F113">
-        <v>913</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2657,16 +2657,16 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>26008</v>
+        <v>65575</v>
       </c>
       <c r="D114">
-        <v>9963542</v>
+        <v>9907201</v>
       </c>
       <c r="E114">
-        <v>9468</v>
+        <v>24552</v>
       </c>
       <c r="F114">
-        <v>982</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2677,16 +2677,16 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>28010</v>
+        <v>70671</v>
       </c>
       <c r="D115">
-        <v>9960701</v>
+        <v>9899884</v>
       </c>
       <c r="E115">
-        <v>10213</v>
+        <v>26544</v>
       </c>
       <c r="F115">
-        <v>1076</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2697,16 +2697,16 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>30260</v>
+        <v>76405</v>
       </c>
       <c r="D116">
-        <v>9957534</v>
+        <v>9891805</v>
       </c>
       <c r="E116">
-        <v>11042</v>
+        <v>28652</v>
       </c>
       <c r="F116">
-        <v>1164</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2717,16 +2717,16 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>32691</v>
+        <v>82357</v>
       </c>
       <c r="D117">
-        <v>9954099</v>
+        <v>9883343</v>
       </c>
       <c r="E117">
-        <v>11938</v>
+        <v>30924</v>
       </c>
       <c r="F117">
-        <v>1272</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2737,16 +2737,16 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>35219</v>
+        <v>88801</v>
       </c>
       <c r="D118">
-        <v>9950456</v>
+        <v>9874175</v>
       </c>
       <c r="E118">
-        <v>12928</v>
+        <v>33385</v>
       </c>
       <c r="F118">
-        <v>1397</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2757,16 +2757,16 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>38051</v>
+        <v>95725</v>
       </c>
       <c r="D119">
-        <v>9946448</v>
+        <v>9864237</v>
       </c>
       <c r="E119">
-        <v>14000</v>
+        <v>36091</v>
       </c>
       <c r="F119">
-        <v>1501</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2777,16 +2777,16 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>40993</v>
+        <v>103283</v>
       </c>
       <c r="D120">
-        <v>9942237</v>
+        <v>9853514</v>
       </c>
       <c r="E120">
-        <v>15143</v>
+        <v>38931</v>
       </c>
       <c r="F120">
-        <v>1627</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2797,16 +2797,16 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>44301</v>
+        <v>111083</v>
       </c>
       <c r="D121">
-        <v>9937600</v>
+        <v>9842198</v>
       </c>
       <c r="E121">
-        <v>16328</v>
+        <v>42074</v>
       </c>
       <c r="F121">
-        <v>1771</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2817,16 +2817,16 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>47742</v>
+        <v>119503</v>
       </c>
       <c r="D122">
-        <v>9932700</v>
+        <v>9829985</v>
       </c>
       <c r="E122">
-        <v>17648</v>
+        <v>45527</v>
       </c>
       <c r="F122">
-        <v>1910</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2837,16 +2837,16 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>51402</v>
+        <v>128713</v>
       </c>
       <c r="D123">
-        <v>9927399</v>
+        <v>9816795</v>
       </c>
       <c r="E123">
-        <v>19124</v>
+        <v>49110</v>
       </c>
       <c r="F123">
-        <v>2075</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2857,16 +2857,16 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>55535</v>
+        <v>138529</v>
       </c>
       <c r="D124">
-        <v>9921591</v>
+        <v>9802720</v>
       </c>
       <c r="E124">
-        <v>20624</v>
+        <v>52954</v>
       </c>
       <c r="F124">
-        <v>2250</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2877,16 +2877,16 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>59785</v>
+        <v>149206</v>
       </c>
       <c r="D125">
-        <v>9915498</v>
+        <v>9787405</v>
       </c>
       <c r="E125">
-        <v>22290</v>
+        <v>57138</v>
       </c>
       <c r="F125">
-        <v>2427</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2897,16 +2897,16 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>64464</v>
+        <v>160636</v>
       </c>
       <c r="D126">
-        <v>9908860</v>
+        <v>9770871</v>
       </c>
       <c r="E126">
-        <v>24083</v>
+        <v>61767</v>
       </c>
       <c r="F126">
-        <v>2593</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2917,16 +2917,16 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>69453</v>
+        <v>172938</v>
       </c>
       <c r="D127">
-        <v>9901701</v>
+        <v>9753172</v>
       </c>
       <c r="E127">
-        <v>26032</v>
+        <v>66620</v>
       </c>
       <c r="F127">
-        <v>2814</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2937,16 +2937,16 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>74778</v>
+        <v>185834</v>
       </c>
       <c r="D128">
-        <v>9894028</v>
+        <v>9734412</v>
       </c>
       <c r="E128">
-        <v>28153</v>
+        <v>71907</v>
       </c>
       <c r="F128">
-        <v>3041</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2957,16 +2957,16 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>80515</v>
+        <v>199802</v>
       </c>
       <c r="D129">
-        <v>9885724</v>
+        <v>9714268</v>
       </c>
       <c r="E129">
-        <v>30463</v>
+        <v>77475</v>
       </c>
       <c r="F129">
-        <v>3298</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2977,16 +2977,16 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>86759</v>
+        <v>214306</v>
       </c>
       <c r="D130">
-        <v>9876783</v>
+        <v>9692895</v>
       </c>
       <c r="E130">
-        <v>32895</v>
+        <v>83652</v>
       </c>
       <c r="F130">
-        <v>3563</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2997,16 +2997,16 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>93568</v>
+        <v>230086</v>
       </c>
       <c r="D131">
-        <v>9867133</v>
+        <v>9669798</v>
       </c>
       <c r="E131">
-        <v>35455</v>
+        <v>90249</v>
       </c>
       <c r="F131">
-        <v>3844</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3017,16 +3017,16 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>100963</v>
+        <v>246381</v>
       </c>
       <c r="D132">
-        <v>9856571</v>
+        <v>9645424</v>
       </c>
       <c r="E132">
-        <v>38278</v>
+        <v>97532</v>
       </c>
       <c r="F132">
-        <v>4188</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3037,16 +3037,16 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>108735</v>
+        <v>264212</v>
       </c>
       <c r="D133">
-        <v>9845364</v>
+        <v>9619131</v>
       </c>
       <c r="E133">
-        <v>41371</v>
+        <v>105099</v>
       </c>
       <c r="F133">
-        <v>4530</v>
+        <v>11558</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3057,16 +3057,16 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>116888</v>
+        <v>282950</v>
       </c>
       <c r="D134">
-        <v>9833568</v>
+        <v>9591225</v>
       </c>
       <c r="E134">
-        <v>44668</v>
+        <v>113322</v>
       </c>
       <c r="F134">
-        <v>4876</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3077,16 +3077,16 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>125726</v>
+        <v>302911</v>
       </c>
       <c r="D135">
-        <v>9820722</v>
+        <v>9561326</v>
       </c>
       <c r="E135">
-        <v>48291</v>
+        <v>122252</v>
       </c>
       <c r="F135">
-        <v>5261</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3097,16 +3097,16 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>135127</v>
+        <v>323678</v>
       </c>
       <c r="D136">
-        <v>9807110</v>
+        <v>9529836</v>
       </c>
       <c r="E136">
-        <v>52115</v>
+        <v>131901</v>
       </c>
       <c r="F136">
-        <v>5648</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3117,16 +3117,16 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>145351</v>
+        <v>345774</v>
       </c>
       <c r="D137">
-        <v>9792249</v>
+        <v>9496424</v>
       </c>
       <c r="E137">
-        <v>56265</v>
+        <v>142105</v>
       </c>
       <c r="F137">
-        <v>6135</v>
+        <v>15697</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3137,16 +3137,16 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>156301</v>
+        <v>369245</v>
       </c>
       <c r="D138">
-        <v>9776399</v>
+        <v>9460740</v>
       </c>
       <c r="E138">
-        <v>60644</v>
+        <v>153057</v>
       </c>
       <c r="F138">
-        <v>6656</v>
+        <v>16958</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3157,16 +3157,16 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>167980</v>
+        <v>393442</v>
       </c>
       <c r="D139">
-        <v>9759419</v>
+        <v>9423353</v>
       </c>
       <c r="E139">
-        <v>65428</v>
+        <v>164886</v>
       </c>
       <c r="F139">
-        <v>7173</v>
+        <v>18319</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3177,16 +3177,16 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>180229</v>
+        <v>419668</v>
       </c>
       <c r="D140">
-        <v>9741362</v>
+        <v>9383052</v>
       </c>
       <c r="E140">
-        <v>70636</v>
+        <v>177593</v>
       </c>
       <c r="F140">
-        <v>7773</v>
+        <v>19687</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3197,16 +3197,16 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>193820</v>
+        <v>446492</v>
       </c>
       <c r="D141">
-        <v>9721678</v>
+        <v>9340913</v>
       </c>
       <c r="E141">
-        <v>76121</v>
+        <v>191369</v>
       </c>
       <c r="F141">
-        <v>8381</v>
+        <v>21226</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3217,16 +3217,16 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>207965</v>
+        <v>474725</v>
       </c>
       <c r="D142">
-        <v>9700895</v>
+        <v>9296146</v>
       </c>
       <c r="E142">
-        <v>82069</v>
+        <v>206242</v>
       </c>
       <c r="F142">
-        <v>9071</v>
+        <v>22887</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3237,16 +3237,16 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>223027</v>
+        <v>504477</v>
       </c>
       <c r="D143">
-        <v>9678674</v>
+        <v>9248695</v>
       </c>
       <c r="E143">
-        <v>88551</v>
+        <v>222140</v>
       </c>
       <c r="F143">
-        <v>9748</v>
+        <v>24688</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3257,16 +3257,16 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>239145</v>
+        <v>535749</v>
       </c>
       <c r="D144">
-        <v>9654883</v>
+        <v>9198663</v>
       </c>
       <c r="E144">
-        <v>95420</v>
+        <v>238995</v>
       </c>
       <c r="F144">
-        <v>10552</v>
+        <v>26593</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3277,16 +3277,16 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>256251</v>
+        <v>567557</v>
       </c>
       <c r="D145">
-        <v>9629473</v>
+        <v>9146711</v>
       </c>
       <c r="E145">
-        <v>102903</v>
+        <v>257033</v>
       </c>
       <c r="F145">
-        <v>11373</v>
+        <v>28699</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3297,16 +3297,16 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>274403</v>
+        <v>600424</v>
       </c>
       <c r="D146">
-        <v>9602380</v>
+        <v>9092471</v>
       </c>
       <c r="E146">
-        <v>110959</v>
+        <v>276248</v>
       </c>
       <c r="F146">
-        <v>12258</v>
+        <v>30857</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3317,16 +3317,16 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>293731</v>
+        <v>634437</v>
       </c>
       <c r="D147">
-        <v>9573402</v>
+        <v>9035361</v>
       </c>
       <c r="E147">
-        <v>119641</v>
+        <v>296981</v>
       </c>
       <c r="F147">
-        <v>13226</v>
+        <v>33221</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3337,16 +3337,16 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>314126</v>
+        <v>669394</v>
       </c>
       <c r="D148">
-        <v>9542445</v>
+        <v>8976030</v>
       </c>
       <c r="E148">
-        <v>129207</v>
+        <v>318954</v>
       </c>
       <c r="F148">
-        <v>14222</v>
+        <v>35622</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3357,16 +3357,16 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>335735</v>
+        <v>704504</v>
       </c>
       <c r="D149">
-        <v>9509629</v>
+        <v>8914627</v>
       </c>
       <c r="E149">
-        <v>139329</v>
+        <v>342658</v>
       </c>
       <c r="F149">
-        <v>15307</v>
+        <v>38211</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3377,16 +3377,16 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>358617</v>
+        <v>741148</v>
       </c>
       <c r="D150">
-        <v>9474951</v>
+        <v>8850077</v>
       </c>
       <c r="E150">
-        <v>149979</v>
+        <v>367801</v>
       </c>
       <c r="F150">
-        <v>16453</v>
+        <v>40974</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3397,16 +3397,16 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>382659</v>
+        <v>777378</v>
       </c>
       <c r="D151">
-        <v>9438063</v>
+        <v>8783948</v>
       </c>
       <c r="E151">
-        <v>161565</v>
+        <v>394780</v>
       </c>
       <c r="F151">
-        <v>17713</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3417,16 +3417,16 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>407760</v>
+        <v>814836</v>
       </c>
       <c r="D152">
-        <v>9399350</v>
+        <v>8715000</v>
       </c>
       <c r="E152">
-        <v>173854</v>
+        <v>423217</v>
       </c>
       <c r="F152">
-        <v>19036</v>
+        <v>46947</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3437,16 +3437,16 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>434141</v>
+        <v>852785</v>
       </c>
       <c r="D153">
-        <v>9358108</v>
+        <v>8643639</v>
       </c>
       <c r="E153">
-        <v>187221</v>
+        <v>453300</v>
       </c>
       <c r="F153">
-        <v>20530</v>
+        <v>50276</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3457,16 +3457,16 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>461908</v>
+        <v>889995</v>
       </c>
       <c r="D154">
-        <v>9314491</v>
+        <v>8570745</v>
       </c>
       <c r="E154">
-        <v>201477</v>
+        <v>485456</v>
       </c>
       <c r="F154">
-        <v>22124</v>
+        <v>53804</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3477,16 +3477,16 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>490646</v>
+        <v>927570</v>
       </c>
       <c r="D155">
-        <v>9268773</v>
+        <v>8495783</v>
       </c>
       <c r="E155">
-        <v>216784</v>
+        <v>519077</v>
       </c>
       <c r="F155">
-        <v>23797</v>
+        <v>57570</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3497,16 +3497,16 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>520738</v>
+        <v>963780</v>
       </c>
       <c r="D156">
-        <v>9220624</v>
+        <v>8419272</v>
       </c>
       <c r="E156">
-        <v>232953</v>
+        <v>555238</v>
       </c>
       <c r="F156">
-        <v>25685</v>
+        <v>61710</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3517,16 +3517,16 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>551660</v>
+        <v>999585</v>
       </c>
       <c r="D157">
-        <v>9170018</v>
+        <v>8341328</v>
       </c>
       <c r="E157">
-        <v>250716</v>
+        <v>593147</v>
       </c>
       <c r="F157">
-        <v>27606</v>
+        <v>65940</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3537,16 +3537,16 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>583727</v>
+        <v>1034496</v>
       </c>
       <c r="D158">
-        <v>9117168</v>
+        <v>8261650</v>
       </c>
       <c r="E158">
-        <v>269419</v>
+        <v>633384</v>
       </c>
       <c r="F158">
-        <v>29686</v>
+        <v>70470</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3557,16 +3557,16 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>617372</v>
+        <v>1067988</v>
       </c>
       <c r="D159">
-        <v>9061302</v>
+        <v>8180707</v>
       </c>
       <c r="E159">
-        <v>289394</v>
+        <v>676065</v>
       </c>
       <c r="F159">
-        <v>31932</v>
+        <v>75240</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3577,16 +3577,16 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>652115</v>
+        <v>1099874</v>
       </c>
       <c r="D160">
-        <v>9002768</v>
+        <v>8098789</v>
       </c>
       <c r="E160">
-        <v>310851</v>
+        <v>721072</v>
       </c>
       <c r="F160">
-        <v>34266</v>
+        <v>80265</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3597,16 +3597,16 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>687320</v>
+        <v>1130700</v>
       </c>
       <c r="D161">
-        <v>8942153</v>
+        <v>8016011</v>
       </c>
       <c r="E161">
-        <v>333793</v>
+        <v>767914</v>
       </c>
       <c r="F161">
-        <v>36734</v>
+        <v>85375</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3617,16 +3617,16 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>723235</v>
+        <v>1159722</v>
       </c>
       <c r="D162">
-        <v>8879145</v>
+        <v>7932749</v>
       </c>
       <c r="E162">
-        <v>358268</v>
+        <v>816610</v>
       </c>
       <c r="F162">
-        <v>39352</v>
+        <v>90919</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3637,16 +3637,16 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>759545</v>
+        <v>1185530</v>
       </c>
       <c r="D163">
-        <v>8813857</v>
+        <v>7849831</v>
       </c>
       <c r="E163">
-        <v>384448</v>
+        <v>868074</v>
       </c>
       <c r="F163">
-        <v>42150</v>
+        <v>96565</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3657,16 +3657,16 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>795722</v>
+        <v>1209203</v>
       </c>
       <c r="D164">
-        <v>8746723</v>
+        <v>7766827</v>
       </c>
       <c r="E164">
-        <v>412275</v>
+        <v>921634</v>
       </c>
       <c r="F164">
-        <v>45280</v>
+        <v>102336</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3677,16 +3677,16 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>832609</v>
+        <v>1230372</v>
       </c>
       <c r="D165">
-        <v>8677020</v>
+        <v>7684255</v>
       </c>
       <c r="E165">
-        <v>441820</v>
+        <v>976802</v>
       </c>
       <c r="F165">
-        <v>48551</v>
+        <v>108571</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3697,16 +3697,16 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>869967</v>
+        <v>1248169</v>
       </c>
       <c r="D166">
-        <v>8604984</v>
+        <v>7601908</v>
       </c>
       <c r="E166">
-        <v>472937</v>
+        <v>1035005</v>
       </c>
       <c r="F166">
-        <v>52112</v>
+        <v>114918</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3717,16 +3717,16 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>906955</v>
+        <v>1263611</v>
       </c>
       <c r="D167">
-        <v>8531108</v>
+        <v>7520337</v>
       </c>
       <c r="E167">
-        <v>506186</v>
+        <v>1094560</v>
       </c>
       <c r="F167">
-        <v>55751</v>
+        <v>121492</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3737,16 +3737,16 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>944047</v>
+        <v>1275004</v>
       </c>
       <c r="D168">
-        <v>8455303</v>
+        <v>7439996</v>
       </c>
       <c r="E168">
-        <v>541018</v>
+        <v>1156597</v>
       </c>
       <c r="F168">
-        <v>59632</v>
+        <v>128403</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3757,16 +3757,16 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>979632</v>
+        <v>1283012</v>
       </c>
       <c r="D169">
-        <v>8378476</v>
+        <v>7360627</v>
       </c>
       <c r="E169">
-        <v>578105</v>
+        <v>1220961</v>
       </c>
       <c r="F169">
-        <v>63787</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3777,16 +3777,16 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>1015256</v>
+        <v>1288131</v>
       </c>
       <c r="D170">
-        <v>8299235</v>
+        <v>7282614</v>
       </c>
       <c r="E170">
-        <v>617266</v>
+        <v>1286589</v>
       </c>
       <c r="F170">
-        <v>68243</v>
+        <v>142666</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3797,16 +3797,16 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>1049289</v>
+        <v>1289126</v>
       </c>
       <c r="D171">
-        <v>8219484</v>
+        <v>7206657</v>
       </c>
       <c r="E171">
-        <v>658357</v>
+        <v>1353977</v>
       </c>
       <c r="F171">
-        <v>72870</v>
+        <v>150240</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3817,16 +3817,16 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>1082298</v>
+        <v>1287035</v>
       </c>
       <c r="D172">
-        <v>8138326</v>
+        <v>7132237</v>
       </c>
       <c r="E172">
-        <v>701762</v>
+        <v>1422804</v>
       </c>
       <c r="F172">
-        <v>77614</v>
+        <v>157924</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3837,16 +3837,16 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>1114133</v>
+        <v>1281299</v>
       </c>
       <c r="D173">
-        <v>8055885</v>
+        <v>7060029</v>
       </c>
       <c r="E173">
-        <v>747204</v>
+        <v>1492993</v>
       </c>
       <c r="F173">
-        <v>82778</v>
+        <v>165679</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3857,16 +3857,16 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>1143898</v>
+        <v>1272150</v>
       </c>
       <c r="D174">
-        <v>7973270</v>
+        <v>6989500</v>
       </c>
       <c r="E174">
-        <v>794894</v>
+        <v>1564765</v>
       </c>
       <c r="F174">
-        <v>87938</v>
+        <v>173585</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3877,16 +3877,16 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>1170892</v>
+        <v>1259321</v>
       </c>
       <c r="D175">
-        <v>7890410</v>
+        <v>6921386</v>
       </c>
       <c r="E175">
-        <v>845128</v>
+        <v>1637542</v>
       </c>
       <c r="F175">
-        <v>93570</v>
+        <v>181751</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3897,16 +3897,16 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>1194995</v>
+        <v>1243373</v>
       </c>
       <c r="D176">
-        <v>7807773</v>
+        <v>6855416</v>
       </c>
       <c r="E176">
-        <v>897888</v>
+        <v>1711241</v>
       </c>
       <c r="F176">
-        <v>99344</v>
+        <v>189970</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3917,16 +3917,16 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>1217016</v>
+        <v>1223679</v>
       </c>
       <c r="D177">
-        <v>7725137</v>
+        <v>6792332</v>
       </c>
       <c r="E177">
-        <v>952386</v>
+        <v>1785857</v>
       </c>
       <c r="F177">
-        <v>105461</v>
+        <v>198132</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3937,16 +3937,16 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>1236429</v>
+        <v>1201380</v>
       </c>
       <c r="D178">
-        <v>7642716</v>
+        <v>6731369</v>
       </c>
       <c r="E178">
-        <v>1009174</v>
+        <v>1860858</v>
       </c>
       <c r="F178">
-        <v>111681</v>
+        <v>206393</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3957,16 +3957,16 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>1252614</v>
+        <v>1177072</v>
       </c>
       <c r="D179">
-        <v>7561243</v>
+        <v>6672759</v>
       </c>
       <c r="E179">
-        <v>1067826</v>
+        <v>1935522</v>
       </c>
       <c r="F179">
-        <v>118317</v>
+        <v>214647</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3977,16 +3977,16 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>1265942</v>
+        <v>1150273</v>
       </c>
       <c r="D180">
-        <v>7480781</v>
+        <v>6616554</v>
       </c>
       <c r="E180">
-        <v>1128352</v>
+        <v>2010220</v>
       </c>
       <c r="F180">
-        <v>124925</v>
+        <v>222953</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3997,16 +3997,16 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>1275409</v>
+        <v>1121322</v>
       </c>
       <c r="D181">
-        <v>7401611</v>
+        <v>6562933</v>
       </c>
       <c r="E181">
-        <v>1191107</v>
+        <v>2084508</v>
       </c>
       <c r="F181">
-        <v>131873</v>
+        <v>231237</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4017,16 +4017,16 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>1281288</v>
+        <v>1090324</v>
       </c>
       <c r="D182">
-        <v>7323696</v>
+        <v>6511584</v>
       </c>
       <c r="E182">
-        <v>1256094</v>
+        <v>2158671</v>
       </c>
       <c r="F182">
-        <v>138922</v>
+        <v>239421</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4037,16 +4037,16 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>1283723</v>
+        <v>1057658</v>
       </c>
       <c r="D183">
-        <v>7247385</v>
+        <v>6462679</v>
       </c>
       <c r="E183">
-        <v>1322641</v>
+        <v>2232276</v>
       </c>
       <c r="F183">
-        <v>146251</v>
+        <v>247387</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4057,16 +4057,16 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>1282800</v>
+        <v>1023716</v>
       </c>
       <c r="D184">
-        <v>7172503</v>
+        <v>6416280</v>
       </c>
       <c r="E184">
-        <v>1390890</v>
+        <v>2304691</v>
       </c>
       <c r="F184">
-        <v>153807</v>
+        <v>255313</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4077,16 +4077,16 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>1278710</v>
+        <v>988300</v>
       </c>
       <c r="D185">
-        <v>7099766</v>
+        <v>6372327</v>
       </c>
       <c r="E185">
-        <v>1459932</v>
+        <v>2376102</v>
       </c>
       <c r="F185">
-        <v>161592</v>
+        <v>263271</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4097,16 +4097,16 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>1270340</v>
+        <v>952047</v>
       </c>
       <c r="D186">
-        <v>7028895</v>
+        <v>6330567</v>
       </c>
       <c r="E186">
-        <v>1531206</v>
+        <v>2446217</v>
       </c>
       <c r="F186">
-        <v>169559</v>
+        <v>271169</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4117,16 +4117,16 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>1259259</v>
+        <v>915547</v>
       </c>
       <c r="D187">
-        <v>6960225</v>
+        <v>6291110</v>
       </c>
       <c r="E187">
-        <v>1603019</v>
+        <v>2514507</v>
       </c>
       <c r="F187">
-        <v>177497</v>
+        <v>278836</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4137,16 +4137,16 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>1245040</v>
+        <v>878493</v>
       </c>
       <c r="D188">
-        <v>6893286</v>
+        <v>6253744</v>
       </c>
       <c r="E188">
-        <v>1675994</v>
+        <v>2581565</v>
       </c>
       <c r="F188">
-        <v>185680</v>
+        <v>286198</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4157,16 +4157,16 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>1226870</v>
+        <v>841593</v>
       </c>
       <c r="D189">
-        <v>6829015</v>
+        <v>6218436</v>
       </c>
       <c r="E189">
-        <v>1750011</v>
+        <v>2646611</v>
       </c>
       <c r="F189">
-        <v>194104</v>
+        <v>293360</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4177,16 +4177,16 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>1206544</v>
+        <v>803823</v>
       </c>
       <c r="D190">
-        <v>6766726</v>
+        <v>6185677</v>
       </c>
       <c r="E190">
-        <v>1824351</v>
+        <v>2710120</v>
       </c>
       <c r="F190">
-        <v>202379</v>
+        <v>300380</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4197,16 +4197,16 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>1183292</v>
+        <v>767117</v>
       </c>
       <c r="D191">
-        <v>6707118</v>
+        <v>6154269</v>
       </c>
       <c r="E191">
-        <v>1898900</v>
+        <v>2771316</v>
       </c>
       <c r="F191">
-        <v>210690</v>
+        <v>307298</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4217,16 +4217,16 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>1157793</v>
+        <v>730571</v>
       </c>
       <c r="D192">
-        <v>6649980</v>
+        <v>6124845</v>
       </c>
       <c r="E192">
-        <v>1973433</v>
+        <v>2830663</v>
       </c>
       <c r="F192">
-        <v>218794</v>
+        <v>313921</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4237,16 +4237,16 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>1129860</v>
+        <v>695151</v>
       </c>
       <c r="D193">
-        <v>6595277</v>
+        <v>6097181</v>
       </c>
       <c r="E193">
-        <v>2047825</v>
+        <v>2887574</v>
       </c>
       <c r="F193">
-        <v>227038</v>
+        <v>320094</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4257,16 +4257,16 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>1099803</v>
+        <v>660107</v>
       </c>
       <c r="D194">
-        <v>6542913</v>
+        <v>6071262</v>
       </c>
       <c r="E194">
-        <v>2122028</v>
+        <v>2942336</v>
       </c>
       <c r="F194">
-        <v>235256</v>
+        <v>326295</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4277,16 +4277,16 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>1068404</v>
+        <v>626278</v>
       </c>
       <c r="D195">
-        <v>6492839</v>
+        <v>6046481</v>
       </c>
       <c r="E195">
-        <v>2195236</v>
+        <v>2995047</v>
       </c>
       <c r="F195">
-        <v>243521</v>
+        <v>332194</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4297,16 +4297,16 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>1035296</v>
+        <v>592954</v>
       </c>
       <c r="D196">
-        <v>6445485</v>
+        <v>6023600</v>
       </c>
       <c r="E196">
-        <v>2267508</v>
+        <v>3045577</v>
       </c>
       <c r="F196">
-        <v>251711</v>
+        <v>337869</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4317,16 +4317,16 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>1000712</v>
+        <v>560760</v>
       </c>
       <c r="D197">
-        <v>6400899</v>
+        <v>6002173</v>
       </c>
       <c r="E197">
-        <v>2338833</v>
+        <v>3093950</v>
       </c>
       <c r="F197">
-        <v>259556</v>
+        <v>343117</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4337,16 +4337,16 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>965641</v>
+        <v>529570</v>
       </c>
       <c r="D198">
-        <v>6358055</v>
+        <v>5982014</v>
       </c>
       <c r="E198">
-        <v>2408940</v>
+        <v>3140128</v>
       </c>
       <c r="F198">
-        <v>267364</v>
+        <v>348288</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4357,16 +4357,16 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>929600</v>
+        <v>499495</v>
       </c>
       <c r="D199">
-        <v>6317785</v>
+        <v>5963184</v>
       </c>
       <c r="E199">
-        <v>2477596</v>
+        <v>3184137</v>
       </c>
       <c r="F199">
-        <v>275019</v>
+        <v>353184</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4377,16 +4377,16 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>893057</v>
+        <v>470667</v>
       </c>
       <c r="D200">
-        <v>6279446</v>
+        <v>5945613</v>
       </c>
       <c r="E200">
-        <v>2544988</v>
+        <v>3225924</v>
       </c>
       <c r="F200">
-        <v>282509</v>
+        <v>357796</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4397,16 +4397,16 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>856590</v>
+        <v>443320</v>
       </c>
       <c r="D201">
-        <v>6243176</v>
+        <v>5929007</v>
       </c>
       <c r="E201">
-        <v>2610502</v>
+        <v>3265393</v>
       </c>
       <c r="F201">
-        <v>289732</v>
+        <v>362280</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4417,16 +4417,16 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>819744</v>
+        <v>416624</v>
       </c>
       <c r="D202">
-        <v>6209151</v>
+        <v>5913943</v>
       </c>
       <c r="E202">
-        <v>2674339</v>
+        <v>3302931</v>
       </c>
       <c r="F202">
-        <v>296766</v>
+        <v>366502</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4437,16 +4437,16 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>783647</v>
+        <v>391545</v>
       </c>
       <c r="D203">
-        <v>6176578</v>
+        <v>5899565</v>
       </c>
       <c r="E203">
-        <v>2736112</v>
+        <v>3338463</v>
       </c>
       <c r="F203">
-        <v>303663</v>
+        <v>370427</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4457,16 +4457,16 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>746917</v>
+        <v>367537</v>
       </c>
       <c r="D204">
-        <v>6146369</v>
+        <v>5886207</v>
       </c>
       <c r="E204">
-        <v>2796283</v>
+        <v>3372134</v>
       </c>
       <c r="F204">
-        <v>310431</v>
+        <v>374122</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4477,16 +4477,16 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>710983</v>
+        <v>344681</v>
       </c>
       <c r="D205">
-        <v>6118032</v>
+        <v>5873755</v>
       </c>
       <c r="E205">
-        <v>2854141</v>
+        <v>3403910</v>
       </c>
       <c r="F205">
-        <v>316844</v>
+        <v>377654</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4497,16 +4497,16 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>675483</v>
+        <v>323558</v>
       </c>
       <c r="D206">
-        <v>6091243</v>
+        <v>5862119</v>
       </c>
       <c r="E206">
-        <v>2910289</v>
+        <v>3433425</v>
       </c>
       <c r="F206">
-        <v>322985</v>
+        <v>380898</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4517,16 +4517,16 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>641118</v>
+        <v>302792</v>
       </c>
       <c r="D207">
-        <v>6066000</v>
+        <v>5851477</v>
       </c>
       <c r="E207">
-        <v>2963829</v>
+        <v>3461651</v>
       </c>
       <c r="F207">
-        <v>329053</v>
+        <v>384080</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4537,16 +4537,16 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>607816</v>
+        <v>283357</v>
       </c>
       <c r="D208">
-        <v>6042164</v>
+        <v>5841488</v>
       </c>
       <c r="E208">
-        <v>3015105</v>
+        <v>3488150</v>
       </c>
       <c r="F208">
-        <v>334915</v>
+        <v>387005</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4557,16 +4557,16 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>575557</v>
+        <v>265024</v>
       </c>
       <c r="D209">
-        <v>6019720</v>
+        <v>5832157</v>
       </c>
       <c r="E209">
-        <v>3064352</v>
+        <v>3513113</v>
       </c>
       <c r="F209">
-        <v>340371</v>
+        <v>389706</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4577,16 +4577,16 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>544133</v>
+        <v>248082</v>
       </c>
       <c r="D210">
-        <v>5998780</v>
+        <v>5823180</v>
       </c>
       <c r="E210">
-        <v>3111422</v>
+        <v>3536523</v>
       </c>
       <c r="F210">
-        <v>345665</v>
+        <v>392215</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4597,16 +4597,16 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>513417</v>
+        <v>231477</v>
       </c>
       <c r="D211">
-        <v>5979422</v>
+        <v>5815004</v>
       </c>
       <c r="E211">
-        <v>3156447</v>
+        <v>3558899</v>
       </c>
       <c r="F211">
-        <v>350714</v>
+        <v>394620</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4617,16 +4617,16 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>484212</v>
+        <v>216069</v>
       </c>
       <c r="D212">
-        <v>5961273</v>
+        <v>5807531</v>
       </c>
       <c r="E212">
-        <v>3199086</v>
+        <v>3579487</v>
       </c>
       <c r="F212">
-        <v>355429</v>
+        <v>396913</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4637,16 +4637,16 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>456592</v>
+        <v>201722</v>
       </c>
       <c r="D213">
-        <v>5944307</v>
+        <v>5800451</v>
       </c>
       <c r="E213">
-        <v>3239233</v>
+        <v>3598743</v>
       </c>
       <c r="F213">
-        <v>359868</v>
+        <v>399084</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4657,16 +4657,16 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>429692</v>
+        <v>188091</v>
       </c>
       <c r="D214">
-        <v>5928363</v>
+        <v>5793923</v>
       </c>
       <c r="E214">
-        <v>3277807</v>
+        <v>3616895</v>
       </c>
       <c r="F214">
-        <v>364138</v>
+        <v>401091</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4677,16 +4677,16 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>404087</v>
+        <v>175307</v>
       </c>
       <c r="D215">
-        <v>5913698</v>
+        <v>5787877</v>
       </c>
       <c r="E215">
-        <v>3314067</v>
+        <v>3633814</v>
       </c>
       <c r="F215">
-        <v>368148</v>
+        <v>403002</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4697,16 +4697,16 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>379364</v>
+        <v>163364</v>
       </c>
       <c r="D216">
-        <v>5900082</v>
+        <v>5782249</v>
       </c>
       <c r="E216">
-        <v>3348467</v>
+        <v>3649615</v>
       </c>
       <c r="F216">
-        <v>372087</v>
+        <v>404772</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4717,16 +4717,16 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>355942</v>
+        <v>151982</v>
       </c>
       <c r="D217">
-        <v>5887234</v>
+        <v>5777025</v>
       </c>
       <c r="E217">
-        <v>3381164</v>
+        <v>3664584</v>
       </c>
       <c r="F217">
-        <v>375660</v>
+        <v>406409</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4737,16 +4737,16 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>334191</v>
+        <v>141788</v>
       </c>
       <c r="D218">
-        <v>5874960</v>
+        <v>5772155</v>
       </c>
       <c r="E218">
-        <v>3411817</v>
+        <v>3678130</v>
       </c>
       <c r="F218">
-        <v>379032</v>
+        <v>407927</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4757,16 +4757,16 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>312779</v>
+        <v>132028</v>
       </c>
       <c r="D219">
-        <v>5863799</v>
+        <v>5767537</v>
       </c>
       <c r="E219">
-        <v>3441190</v>
+        <v>3691040</v>
       </c>
       <c r="F219">
-        <v>382232</v>
+        <v>409395</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4777,16 +4777,16 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>292986</v>
+        <v>122911</v>
       </c>
       <c r="D220">
-        <v>5853383</v>
+        <v>5763296</v>
       </c>
       <c r="E220">
-        <v>3468426</v>
+        <v>3703039</v>
       </c>
       <c r="F220">
-        <v>385205</v>
+        <v>410754</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4797,16 +4797,16 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>274374</v>
+        <v>114283</v>
       </c>
       <c r="D221">
-        <v>5843658</v>
+        <v>5759472</v>
       </c>
       <c r="E221">
-        <v>3493965</v>
+        <v>3714242</v>
       </c>
       <c r="F221">
-        <v>388003</v>
+        <v>412003</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4817,16 +4817,16 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>256790</v>
+        <v>106243</v>
       </c>
       <c r="D222">
-        <v>5834453</v>
+        <v>5755876</v>
       </c>
       <c r="E222">
-        <v>3518100</v>
+        <v>3724732</v>
       </c>
       <c r="F222">
-        <v>390657</v>
+        <v>413149</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4837,16 +4837,16 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>239916</v>
+        <v>99040</v>
       </c>
       <c r="D223">
-        <v>5826084</v>
+        <v>5752437</v>
       </c>
       <c r="E223">
-        <v>3540837</v>
+        <v>3734335</v>
       </c>
       <c r="F223">
-        <v>393163</v>
+        <v>414188</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4857,16 +4857,16 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>223916</v>
+        <v>92128</v>
       </c>
       <c r="D224">
-        <v>5818248</v>
+        <v>5749360</v>
       </c>
       <c r="E224">
-        <v>3562254</v>
+        <v>3743329</v>
       </c>
       <c r="F224">
-        <v>395582</v>
+        <v>415183</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4877,16 +4877,16 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>208776</v>
+        <v>85654</v>
       </c>
       <c r="D225">
-        <v>5810944</v>
+        <v>5746503</v>
       </c>
       <c r="E225">
-        <v>3582468</v>
+        <v>3751736</v>
       </c>
       <c r="F225">
-        <v>397812</v>
+        <v>416107</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4897,16 +4897,16 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>194682</v>
+        <v>79291</v>
       </c>
       <c r="D226">
-        <v>5804098</v>
+        <v>5743889</v>
       </c>
       <c r="E226">
-        <v>3601386</v>
+        <v>3759764</v>
       </c>
       <c r="F226">
-        <v>399834</v>
+        <v>417056</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4917,16 +4917,16 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>181569</v>
+        <v>73569</v>
       </c>
       <c r="D227">
-        <v>5797853</v>
+        <v>5741435</v>
       </c>
       <c r="E227">
-        <v>3618917</v>
+        <v>3767062</v>
       </c>
       <c r="F227">
-        <v>401661</v>
+        <v>417934</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4937,16 +4937,16 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>169255</v>
+        <v>68378</v>
       </c>
       <c r="D228">
-        <v>5792018</v>
+        <v>5739153</v>
       </c>
       <c r="E228">
-        <v>3635219</v>
+        <v>3773827</v>
       </c>
       <c r="F228">
-        <v>403508</v>
+        <v>418642</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4957,16 +4957,16 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>157712</v>
+        <v>63407</v>
       </c>
       <c r="D229">
-        <v>5786595</v>
+        <v>5737044</v>
       </c>
       <c r="E229">
-        <v>3650531</v>
+        <v>3780205</v>
       </c>
       <c r="F229">
-        <v>405162</v>
+        <v>419344</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4977,16 +4977,16 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>146782</v>
+        <v>58891</v>
       </c>
       <c r="D230">
-        <v>5781581</v>
+        <v>5735032</v>
       </c>
       <c r="E230">
-        <v>3664872</v>
+        <v>3786077</v>
       </c>
       <c r="F230">
-        <v>406765</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4997,16 +4997,16 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>136917</v>
+        <v>54674</v>
       </c>
       <c r="D231">
-        <v>5776781</v>
+        <v>5733203</v>
       </c>
       <c r="E231">
-        <v>3678044</v>
+        <v>3791510</v>
       </c>
       <c r="F231">
-        <v>408258</v>
+        <v>420613</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5017,16 +5017,16 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>127670</v>
+        <v>50709</v>
       </c>
       <c r="D232">
-        <v>5772412</v>
+        <v>5731540</v>
       </c>
       <c r="E232">
-        <v>3690289</v>
+        <v>3796553</v>
       </c>
       <c r="F232">
-        <v>409629</v>
+        <v>421198</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5037,16 +5037,16 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>118814</v>
+        <v>47076</v>
       </c>
       <c r="D233">
-        <v>5768420</v>
+        <v>5729949</v>
       </c>
       <c r="E233">
-        <v>3701822</v>
+        <v>3801307</v>
       </c>
       <c r="F233">
-        <v>410944</v>
+        <v>421668</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5057,16 +5057,16 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>110386</v>
+        <v>43589</v>
       </c>
       <c r="D234">
-        <v>5764574</v>
+        <v>5728566</v>
       </c>
       <c r="E234">
-        <v>3712848</v>
+        <v>3805722</v>
       </c>
       <c r="F234">
-        <v>412192</v>
+        <v>422123</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5077,16 +5077,16 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>102737</v>
+        <v>40294</v>
       </c>
       <c r="D235">
-        <v>5761062</v>
+        <v>5727243</v>
       </c>
       <c r="E235">
-        <v>3722841</v>
+        <v>3809902</v>
       </c>
       <c r="F235">
-        <v>413360</v>
+        <v>422561</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5097,16 +5097,16 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>95535</v>
+        <v>37261</v>
       </c>
       <c r="D236">
-        <v>5757848</v>
+        <v>5726035</v>
       </c>
       <c r="E236">
-        <v>3732149</v>
+        <v>3813741</v>
       </c>
       <c r="F236">
-        <v>414468</v>
+        <v>422963</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5117,16 +5117,16 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>88838</v>
+        <v>34661</v>
       </c>
       <c r="D237">
-        <v>5754820</v>
+        <v>5724811</v>
       </c>
       <c r="E237">
-        <v>3740888</v>
+        <v>3817182</v>
       </c>
       <c r="F237">
-        <v>415454</v>
+        <v>423346</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5137,16 +5137,16 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>82429</v>
+        <v>32162</v>
       </c>
       <c r="D238">
-        <v>5752024</v>
+        <v>5723714</v>
       </c>
       <c r="E238">
-        <v>3749183</v>
+        <v>3820422</v>
       </c>
       <c r="F238">
-        <v>416364</v>
+        <v>423702</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5157,16 +5157,16 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>76632</v>
+        <v>29701</v>
       </c>
       <c r="D239">
-        <v>5749452</v>
+        <v>5722736</v>
       </c>
       <c r="E239">
-        <v>3756779</v>
+        <v>3823479</v>
       </c>
       <c r="F239">
-        <v>417137</v>
+        <v>424084</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5177,16 +5177,16 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>71175</v>
+        <v>27565</v>
       </c>
       <c r="D240">
-        <v>5747073</v>
+        <v>5721795</v>
       </c>
       <c r="E240">
-        <v>3763836</v>
+        <v>3826255</v>
       </c>
       <c r="F240">
-        <v>417916</v>
+        <v>424385</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5197,16 +5197,16 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>66112</v>
+        <v>25527</v>
       </c>
       <c r="D241">
-        <v>5744832</v>
+        <v>5720976</v>
       </c>
       <c r="E241">
-        <v>3770392</v>
+        <v>3828823</v>
       </c>
       <c r="F241">
-        <v>418664</v>
+        <v>424674</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5217,16 +5217,16 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>61310</v>
+        <v>23722</v>
       </c>
       <c r="D242">
-        <v>5742788</v>
+        <v>5720167</v>
       </c>
       <c r="E242">
-        <v>3776509</v>
+        <v>3831172</v>
       </c>
       <c r="F242">
-        <v>419393</v>
+        <v>424939</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5237,16 +5237,16 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>56856</v>
+        <v>21999</v>
       </c>
       <c r="D243">
-        <v>5740997</v>
+        <v>5719436</v>
       </c>
       <c r="E243">
-        <v>3782125</v>
+        <v>3833384</v>
       </c>
       <c r="F243">
-        <v>420022</v>
+        <v>425181</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5257,16 +5257,16 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>52770</v>
+        <v>20390</v>
       </c>
       <c r="D244">
-        <v>5739248</v>
+        <v>5718763</v>
       </c>
       <c r="E244">
-        <v>3787370</v>
+        <v>3835462</v>
       </c>
       <c r="F244">
-        <v>420612</v>
+        <v>425385</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5277,16 +5277,16 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>49006</v>
+        <v>18905</v>
       </c>
       <c r="D245">
-        <v>5737589</v>
+        <v>5718139</v>
       </c>
       <c r="E245">
-        <v>3792218</v>
+        <v>3837380</v>
       </c>
       <c r="F245">
-        <v>421187</v>
+        <v>425576</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5297,16 +5297,16 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>45539</v>
+        <v>17499</v>
       </c>
       <c r="D246">
-        <v>5736042</v>
+        <v>5717533</v>
       </c>
       <c r="E246">
-        <v>3796712</v>
+        <v>3839196</v>
       </c>
       <c r="F246">
-        <v>421707</v>
+        <v>425772</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5317,16 +5317,16 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>42136</v>
+        <v>16236</v>
       </c>
       <c r="D247">
-        <v>5734645</v>
+        <v>5716967</v>
       </c>
       <c r="E247">
-        <v>3800992</v>
+        <v>3840829</v>
       </c>
       <c r="F247">
-        <v>422227</v>
+        <v>425968</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5337,16 +5337,16 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>39025</v>
+        <v>15064</v>
       </c>
       <c r="D248">
-        <v>5733387</v>
+        <v>5716476</v>
       </c>
       <c r="E248">
-        <v>3804934</v>
+        <v>3842296</v>
       </c>
       <c r="F248">
-        <v>422654</v>
+        <v>426164</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5357,16 +5357,16 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>36218</v>
+        <v>13946</v>
       </c>
       <c r="D249">
-        <v>5732202</v>
+        <v>5716003</v>
       </c>
       <c r="E249">
-        <v>3808515</v>
+        <v>3843722</v>
       </c>
       <c r="F249">
-        <v>423065</v>
+        <v>426329</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5377,16 +5377,16 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>33445</v>
+        <v>12955</v>
       </c>
       <c r="D250">
-        <v>5731129</v>
+        <v>5715611</v>
       </c>
       <c r="E250">
-        <v>3811969</v>
+        <v>3844964</v>
       </c>
       <c r="F250">
-        <v>423457</v>
+        <v>426470</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5397,16 +5397,16 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>30982</v>
+        <v>12020</v>
       </c>
       <c r="D251">
-        <v>5730080</v>
+        <v>5715223</v>
       </c>
       <c r="E251">
-        <v>3815152</v>
+        <v>3846154</v>
       </c>
       <c r="F251">
-        <v>423786</v>
+        <v>426603</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5417,16 +5417,16 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>28715</v>
+        <v>11199</v>
       </c>
       <c r="D252">
-        <v>5729133</v>
+        <v>5714836</v>
       </c>
       <c r="E252">
-        <v>3818050</v>
+        <v>3847229</v>
       </c>
       <c r="F252">
-        <v>424102</v>
+        <v>426736</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5437,16 +5437,16 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>26579</v>
+        <v>10307</v>
       </c>
       <c r="D253">
-        <v>5728241</v>
+        <v>5714504</v>
       </c>
       <c r="E253">
-        <v>3820772</v>
+        <v>3848338</v>
       </c>
       <c r="F253">
-        <v>424408</v>
+        <v>426851</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5457,16 +5457,16 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>24620</v>
+        <v>9540</v>
       </c>
       <c r="D254">
-        <v>5727404</v>
+        <v>5714174</v>
       </c>
       <c r="E254">
-        <v>3823274</v>
+        <v>3849312</v>
       </c>
       <c r="F254">
-        <v>424702</v>
+        <v>426974</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5477,16 +5477,16 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>22806</v>
+        <v>8823</v>
       </c>
       <c r="D255">
-        <v>5726646</v>
+        <v>5713913</v>
       </c>
       <c r="E255">
-        <v>3825569</v>
+        <v>3850199</v>
       </c>
       <c r="F255">
-        <v>424979</v>
+        <v>427065</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5497,16 +5497,16 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>21149</v>
+        <v>8152</v>
       </c>
       <c r="D256">
-        <v>5725924</v>
+        <v>5713643</v>
       </c>
       <c r="E256">
-        <v>3827720</v>
+        <v>3851008</v>
       </c>
       <c r="F256">
-        <v>425207</v>
+        <v>427197</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5517,16 +5517,16 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>19563</v>
+        <v>7552</v>
       </c>
       <c r="D257">
-        <v>5725269</v>
+        <v>5713424</v>
       </c>
       <c r="E257">
-        <v>3829747</v>
+        <v>3851740</v>
       </c>
       <c r="F257">
-        <v>425421</v>
+        <v>427284</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5537,16 +5537,16 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>18122</v>
+        <v>6969</v>
       </c>
       <c r="D258">
-        <v>5724666</v>
+        <v>5713198</v>
       </c>
       <c r="E258">
-        <v>3831594</v>
+        <v>3852464</v>
       </c>
       <c r="F258">
-        <v>425618</v>
+        <v>427369</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5557,16 +5557,16 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>16907</v>
+        <v>6438</v>
       </c>
       <c r="D259">
-        <v>5724090</v>
+        <v>5712998</v>
       </c>
       <c r="E259">
-        <v>3833182</v>
+        <v>3853130</v>
       </c>
       <c r="F259">
-        <v>425821</v>
+        <v>427434</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5577,16 +5577,16 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>15672</v>
+        <v>5976</v>
       </c>
       <c r="D260">
-        <v>5723576</v>
+        <v>5712787</v>
       </c>
       <c r="E260">
-        <v>3834758</v>
+        <v>3853737</v>
       </c>
       <c r="F260">
-        <v>425994</v>
+        <v>427500</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5597,16 +5597,16 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>14520</v>
+        <v>5559</v>
       </c>
       <c r="D261">
-        <v>5723069</v>
+        <v>5712580</v>
       </c>
       <c r="E261">
-        <v>3836254</v>
+        <v>3854303</v>
       </c>
       <c r="F261">
-        <v>426157</v>
+        <v>427558</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5617,16 +5617,16 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>13412</v>
+        <v>5114</v>
       </c>
       <c r="D262">
-        <v>5722630</v>
+        <v>5712419</v>
       </c>
       <c r="E262">
-        <v>3837646</v>
+        <v>3854862</v>
       </c>
       <c r="F262">
-        <v>426312</v>
+        <v>427605</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5637,16 +5637,16 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>12428</v>
+        <v>4688</v>
       </c>
       <c r="D263">
-        <v>5722217</v>
+        <v>5712279</v>
       </c>
       <c r="E263">
-        <v>3838903</v>
+        <v>3855377</v>
       </c>
       <c r="F263">
-        <v>426452</v>
+        <v>427656</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5657,16 +5657,16 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>11581</v>
+        <v>4334</v>
       </c>
       <c r="D264">
-        <v>5721806</v>
+        <v>5712142</v>
       </c>
       <c r="E264">
-        <v>3840042</v>
+        <v>3855813</v>
       </c>
       <c r="F264">
-        <v>426571</v>
+        <v>427711</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5677,16 +5677,16 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>10730</v>
+        <v>3986</v>
       </c>
       <c r="D265">
-        <v>5721472</v>
+        <v>5712017</v>
       </c>
       <c r="E265">
-        <v>3841102</v>
+        <v>3856233</v>
       </c>
       <c r="F265">
-        <v>426696</v>
+        <v>427764</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5697,16 +5697,16 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>10009</v>
+        <v>3709</v>
       </c>
       <c r="D266">
-        <v>5721120</v>
+        <v>5711902</v>
       </c>
       <c r="E266">
-        <v>3842088</v>
+        <v>3856584</v>
       </c>
       <c r="F266">
-        <v>426783</v>
+        <v>427805</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5717,16 +5717,16 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>9259</v>
+        <v>3429</v>
       </c>
       <c r="D267">
-        <v>5720821</v>
+        <v>5711794</v>
       </c>
       <c r="E267">
-        <v>3843030</v>
+        <v>3856940</v>
       </c>
       <c r="F267">
-        <v>426890</v>
+        <v>427837</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5737,16 +5737,16 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>8580</v>
+        <v>3155</v>
       </c>
       <c r="D268">
-        <v>5720553</v>
+        <v>5711681</v>
       </c>
       <c r="E268">
-        <v>3843881</v>
+        <v>3857289</v>
       </c>
       <c r="F268">
-        <v>426986</v>
+        <v>427875</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5757,16 +5757,16 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>7928</v>
+        <v>2922</v>
       </c>
       <c r="D269">
-        <v>5720313</v>
+        <v>5711582</v>
       </c>
       <c r="E269">
-        <v>3844680</v>
+        <v>3857574</v>
       </c>
       <c r="F269">
-        <v>427079</v>
+        <v>427922</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5777,16 +5777,16 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>7340</v>
+        <v>2691</v>
       </c>
       <c r="D270">
-        <v>5720064</v>
+        <v>5711483</v>
       </c>
       <c r="E270">
-        <v>3845444</v>
+        <v>3857869</v>
       </c>
       <c r="F270">
-        <v>427152</v>
+        <v>427957</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5797,16 +5797,16 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>6790</v>
+        <v>2540</v>
       </c>
       <c r="D271">
-        <v>5719856</v>
+        <v>5711373</v>
       </c>
       <c r="E271">
-        <v>3846126</v>
+        <v>3858103</v>
       </c>
       <c r="F271">
-        <v>427228</v>
+        <v>427984</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5817,16 +5817,16 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>6282</v>
+        <v>2347</v>
       </c>
       <c r="D272">
-        <v>5719642</v>
+        <v>5711296</v>
       </c>
       <c r="E272">
-        <v>3846779</v>
+        <v>3858351</v>
       </c>
       <c r="F272">
-        <v>427297</v>
+        <v>428006</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5837,16 +5837,16 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>5828</v>
+        <v>2185</v>
       </c>
       <c r="D273">
-        <v>5719441</v>
+        <v>5711239</v>
       </c>
       <c r="E273">
-        <v>3847366</v>
+        <v>3858553</v>
       </c>
       <c r="F273">
-        <v>427365</v>
+        <v>428023</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5857,16 +5857,16 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>5407</v>
+        <v>2030</v>
       </c>
       <c r="D274">
-        <v>5719259</v>
+        <v>5711168</v>
       </c>
       <c r="E274">
-        <v>3847891</v>
+        <v>3858756</v>
       </c>
       <c r="F274">
-        <v>427443</v>
+        <v>428046</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5877,16 +5877,16 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>5010</v>
+        <v>1897</v>
       </c>
       <c r="D275">
-        <v>5719080</v>
+        <v>5711101</v>
       </c>
       <c r="E275">
-        <v>3848408</v>
+        <v>3858933</v>
       </c>
       <c r="F275">
-        <v>427502</v>
+        <v>428069</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5897,16 +5897,16 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>4650</v>
+        <v>1736</v>
       </c>
       <c r="D276">
-        <v>5718926</v>
+        <v>5711051</v>
       </c>
       <c r="E276">
-        <v>3848875</v>
+        <v>3859117</v>
       </c>
       <c r="F276">
-        <v>427549</v>
+        <v>428096</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5917,16 +5917,16 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>4281</v>
+        <v>1577</v>
       </c>
       <c r="D277">
-        <v>5718788</v>
+        <v>5711003</v>
       </c>
       <c r="E277">
-        <v>3849330</v>
+        <v>3859306</v>
       </c>
       <c r="F277">
-        <v>427601</v>
+        <v>428114</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5937,16 +5937,16 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>3975</v>
+        <v>1453</v>
       </c>
       <c r="D278">
-        <v>5718655</v>
+        <v>5710966</v>
       </c>
       <c r="E278">
-        <v>3849727</v>
+        <v>3859448</v>
       </c>
       <c r="F278">
-        <v>427643</v>
+        <v>428133</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5957,16 +5957,16 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>3688</v>
+        <v>1364</v>
       </c>
       <c r="D279">
-        <v>5718529</v>
+        <v>5710915</v>
       </c>
       <c r="E279">
-        <v>3850087</v>
+        <v>3859577</v>
       </c>
       <c r="F279">
-        <v>427696</v>
+        <v>428144</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5977,16 +5977,16 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>3400</v>
+        <v>1283</v>
       </c>
       <c r="D280">
-        <v>5718406</v>
+        <v>5710859</v>
       </c>
       <c r="E280">
-        <v>3850450</v>
+        <v>3859698</v>
       </c>
       <c r="F280">
-        <v>427744</v>
+        <v>428160</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -5997,16 +5997,16 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>3179</v>
+        <v>1204</v>
       </c>
       <c r="D281">
-        <v>5718293</v>
+        <v>5710813</v>
       </c>
       <c r="E281">
-        <v>3850745</v>
+        <v>3859803</v>
       </c>
       <c r="F281">
-        <v>427783</v>
+        <v>428180</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6017,16 +6017,16 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>2928</v>
+        <v>1120</v>
       </c>
       <c r="D282">
-        <v>5718192</v>
+        <v>5710782</v>
       </c>
       <c r="E282">
-        <v>3851063</v>
+        <v>3859910</v>
       </c>
       <c r="F282">
-        <v>427817</v>
+        <v>428188</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6037,16 +6037,16 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>2741</v>
+        <v>1050</v>
       </c>
       <c r="D283">
-        <v>5718080</v>
+        <v>5710744</v>
       </c>
       <c r="E283">
-        <v>3851331</v>
+        <v>3860007</v>
       </c>
       <c r="F283">
-        <v>427848</v>
+        <v>428199</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6057,16 +6057,16 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>2560</v>
+        <v>965</v>
       </c>
       <c r="D284">
-        <v>5717993</v>
+        <v>5710716</v>
       </c>
       <c r="E284">
-        <v>3851561</v>
+        <v>3860107</v>
       </c>
       <c r="F284">
-        <v>427886</v>
+        <v>428212</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6077,16 +6077,16 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>2393</v>
+        <v>892</v>
       </c>
       <c r="D285">
-        <v>5717920</v>
+        <v>5710690</v>
       </c>
       <c r="E285">
-        <v>3851777</v>
+        <v>3860194</v>
       </c>
       <c r="F285">
-        <v>427910</v>
+        <v>428224</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6097,16 +6097,16 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>2234</v>
+        <v>825</v>
       </c>
       <c r="D286">
-        <v>5717830</v>
+        <v>5710658</v>
       </c>
       <c r="E286">
-        <v>3852001</v>
+        <v>3860282</v>
       </c>
       <c r="F286">
-        <v>427935</v>
+        <v>428235</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6117,16 +6117,16 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>2097</v>
+        <v>740</v>
       </c>
       <c r="D287">
-        <v>5717759</v>
+        <v>5710633</v>
       </c>
       <c r="E287">
-        <v>3852187</v>
+        <v>3860385</v>
       </c>
       <c r="F287">
-        <v>427957</v>
+        <v>428242</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6137,16 +6137,16 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>1952</v>
+        <v>683</v>
       </c>
       <c r="D288">
-        <v>5717690</v>
+        <v>5710613</v>
       </c>
       <c r="E288">
-        <v>3852379</v>
+        <v>3860457</v>
       </c>
       <c r="F288">
-        <v>427979</v>
+        <v>428247</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6157,16 +6157,16 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>1816</v>
+        <v>647</v>
       </c>
       <c r="D289">
-        <v>5717625</v>
+        <v>5710592</v>
       </c>
       <c r="E289">
-        <v>3852567</v>
+        <v>3860505</v>
       </c>
       <c r="F289">
-        <v>427992</v>
+        <v>428256</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6177,16 +6177,16 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>1687</v>
+        <v>594</v>
       </c>
       <c r="D290">
-        <v>5717572</v>
+        <v>5710574</v>
       </c>
       <c r="E290">
-        <v>3852734</v>
+        <v>3860565</v>
       </c>
       <c r="F290">
-        <v>428007</v>
+        <v>428267</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6197,16 +6197,16 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>1566</v>
+        <v>549</v>
       </c>
       <c r="D291">
-        <v>5717514</v>
+        <v>5710552</v>
       </c>
       <c r="E291">
-        <v>3852893</v>
+        <v>3860626</v>
       </c>
       <c r="F291">
-        <v>428027</v>
+        <v>428273</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6217,16 +6217,16 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>1456</v>
+        <v>515</v>
       </c>
       <c r="D292">
-        <v>5717470</v>
+        <v>5710536</v>
       </c>
       <c r="E292">
-        <v>3853034</v>
+        <v>3860674</v>
       </c>
       <c r="F292">
-        <v>428040</v>
+        <v>428275</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6237,16 +6237,16 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>1362</v>
+        <v>477</v>
       </c>
       <c r="D293">
-        <v>5717426</v>
+        <v>5710526</v>
       </c>
       <c r="E293">
-        <v>3853159</v>
+        <v>3860715</v>
       </c>
       <c r="F293">
-        <v>428053</v>
+        <v>428282</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6257,16 +6257,16 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>1270</v>
+        <v>456</v>
       </c>
       <c r="D294">
-        <v>5717385</v>
+        <v>5710510</v>
       </c>
       <c r="E294">
-        <v>3853285</v>
+        <v>3860748</v>
       </c>
       <c r="F294">
-        <v>428060</v>
+        <v>428286</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6277,16 +6277,16 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>1186</v>
+        <v>413</v>
       </c>
       <c r="D295">
-        <v>5717343</v>
+        <v>5710502</v>
       </c>
       <c r="E295">
-        <v>3853394</v>
+        <v>3860796</v>
       </c>
       <c r="F295">
-        <v>428077</v>
+        <v>428289</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6297,16 +6297,16 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>1092</v>
+        <v>366</v>
       </c>
       <c r="D296">
-        <v>5717314</v>
+        <v>5710493</v>
       </c>
       <c r="E296">
-        <v>3853508</v>
+        <v>3860845</v>
       </c>
       <c r="F296">
-        <v>428086</v>
+        <v>428296</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6317,16 +6317,16 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>1013</v>
+        <v>330</v>
       </c>
       <c r="D297">
-        <v>5717280</v>
+        <v>5710483</v>
       </c>
       <c r="E297">
-        <v>3853608</v>
+        <v>3860880</v>
       </c>
       <c r="F297">
-        <v>428099</v>
+        <v>428307</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6337,16 +6337,16 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>945</v>
+        <v>305</v>
       </c>
       <c r="D298">
-        <v>5717247</v>
+        <v>5710477</v>
       </c>
       <c r="E298">
-        <v>3853699</v>
+        <v>3860908</v>
       </c>
       <c r="F298">
-        <v>428109</v>
+        <v>428310</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6357,16 +6357,16 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>859</v>
+        <v>274</v>
       </c>
       <c r="D299">
-        <v>5717221</v>
+        <v>5710470</v>
       </c>
       <c r="E299">
-        <v>3853801</v>
+        <v>3860940</v>
       </c>
       <c r="F299">
-        <v>428119</v>
+        <v>428316</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6377,16 +6377,16 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>801</v>
+        <v>256</v>
       </c>
       <c r="D300">
-        <v>5717192</v>
+        <v>5710460</v>
       </c>
       <c r="E300">
-        <v>3853882</v>
+        <v>3860966</v>
       </c>
       <c r="F300">
-        <v>428125</v>
+        <v>428318</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6397,16 +6397,16 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>755</v>
+        <v>239</v>
       </c>
       <c r="D301">
-        <v>5717165</v>
+        <v>5710451</v>
       </c>
       <c r="E301">
-        <v>3853942</v>
+        <v>3860991</v>
       </c>
       <c r="F301">
-        <v>428138</v>
+        <v>428319</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6417,16 +6417,16 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>690</v>
+        <v>211</v>
       </c>
       <c r="D302">
-        <v>5717140</v>
+        <v>5710447</v>
       </c>
       <c r="E302">
-        <v>3854026</v>
+        <v>3861018</v>
       </c>
       <c r="F302">
-        <v>428144</v>
+        <v>428324</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6437,16 +6437,16 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>635</v>
+        <v>187</v>
       </c>
       <c r="D303">
-        <v>5717124</v>
+        <v>5710446</v>
       </c>
       <c r="E303">
-        <v>3854090</v>
+        <v>3861040</v>
       </c>
       <c r="F303">
-        <v>428151</v>
+        <v>428327</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6457,16 +6457,16 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>579</v>
+        <v>170</v>
       </c>
       <c r="D304">
-        <v>5717111</v>
+        <v>5710443</v>
       </c>
       <c r="E304">
-        <v>3854150</v>
+        <v>3861057</v>
       </c>
       <c r="F304">
-        <v>428160</v>
+        <v>428330</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6477,16 +6477,16 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>531</v>
+        <v>152</v>
       </c>
       <c r="D305">
-        <v>5717094</v>
+        <v>5710440</v>
       </c>
       <c r="E305">
-        <v>3854208</v>
+        <v>3861076</v>
       </c>
       <c r="F305">
-        <v>428167</v>
+        <v>428332</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6497,16 +6497,16 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>489</v>
+        <v>139</v>
       </c>
       <c r="D306">
-        <v>5717083</v>
+        <v>5710435</v>
       </c>
       <c r="E306">
-        <v>3854256</v>
+        <v>3861092</v>
       </c>
       <c r="F306">
-        <v>428172</v>
+        <v>428334</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6517,16 +6517,16 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>443</v>
+        <v>117</v>
       </c>
       <c r="D307">
-        <v>5717071</v>
+        <v>5710435</v>
       </c>
       <c r="E307">
-        <v>3854308</v>
+        <v>3861112</v>
       </c>
       <c r="F307">
-        <v>428178</v>
+        <v>428336</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6537,16 +6537,16 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>413</v>
+        <v>105</v>
       </c>
       <c r="D308">
-        <v>5717057</v>
+        <v>5710431</v>
       </c>
       <c r="E308">
-        <v>3854347</v>
+        <v>3861127</v>
       </c>
       <c r="F308">
-        <v>428183</v>
+        <v>428337</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6557,16 +6557,16 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="D309">
-        <v>5717047</v>
+        <v>5710429</v>
       </c>
       <c r="E309">
-        <v>3854387</v>
+        <v>3861137</v>
       </c>
       <c r="F309">
-        <v>428187</v>
+        <v>428337</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6577,16 +6577,16 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>344</v>
+        <v>86</v>
       </c>
       <c r="D310">
-        <v>5717041</v>
+        <v>5710424</v>
       </c>
       <c r="E310">
-        <v>3854426</v>
+        <v>3861151</v>
       </c>
       <c r="F310">
-        <v>428189</v>
+        <v>428339</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6597,16 +6597,16 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="D311">
-        <v>5717035</v>
+        <v>5710422</v>
       </c>
       <c r="E311">
-        <v>3854461</v>
+        <v>3861159</v>
       </c>
       <c r="F311">
-        <v>428196</v>
+        <v>428339</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6617,16 +6617,16 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="D312">
-        <v>5717030</v>
+        <v>5710418</v>
       </c>
       <c r="E312">
-        <v>3854485</v>
+        <v>3861168</v>
       </c>
       <c r="F312">
-        <v>428201</v>
+        <v>428339</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6637,16 +6637,16 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="D313">
-        <v>5717019</v>
+        <v>5710415</v>
       </c>
       <c r="E313">
-        <v>3854516</v>
+        <v>3861177</v>
       </c>
       <c r="F313">
-        <v>428204</v>
+        <v>428340</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6657,16 +6657,16 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="D314">
-        <v>5717012</v>
+        <v>5710415</v>
       </c>
       <c r="E314">
-        <v>3854543</v>
+        <v>3861182</v>
       </c>
       <c r="F314">
-        <v>428210</v>
+        <v>428341</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6677,16 +6677,16 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="D315">
-        <v>5717005</v>
+        <v>5710413</v>
       </c>
       <c r="E315">
-        <v>3854566</v>
+        <v>3861189</v>
       </c>
       <c r="F315">
-        <v>428213</v>
+        <v>428341</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6697,16 +6697,16 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="D316">
-        <v>5716999</v>
+        <v>5710412</v>
       </c>
       <c r="E316">
-        <v>3854592</v>
+        <v>3861197</v>
       </c>
       <c r="F316">
-        <v>428216</v>
+        <v>428343</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6717,16 +6717,16 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="D317">
-        <v>5716992</v>
+        <v>5710409</v>
       </c>
       <c r="E317">
-        <v>3854616</v>
+        <v>3861205</v>
       </c>
       <c r="F317">
-        <v>428219</v>
+        <v>428344</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6737,16 +6737,16 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D318">
-        <v>5716987</v>
+        <v>5710407</v>
       </c>
       <c r="E318">
-        <v>3854640</v>
+        <v>3861207</v>
       </c>
       <c r="F318">
-        <v>428220</v>
+        <v>428346</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6757,16 +6757,16 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="D319">
-        <v>5716983</v>
+        <v>5710407</v>
       </c>
       <c r="E319">
-        <v>3854652</v>
+        <v>3861208</v>
       </c>
       <c r="F319">
-        <v>428224</v>
+        <v>428346</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6777,16 +6777,16 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="D320">
-        <v>5716979</v>
+        <v>5710402</v>
       </c>
       <c r="E320">
-        <v>3854663</v>
+        <v>3861209</v>
       </c>
       <c r="F320">
-        <v>428226</v>
+        <v>428348</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6797,16 +6797,16 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D321">
-        <v>5716973</v>
+        <v>5710400</v>
       </c>
       <c r="E321">
-        <v>3854679</v>
+        <v>3861212</v>
       </c>
       <c r="F321">
-        <v>428227</v>
+        <v>428348</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6817,16 +6817,16 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D322">
-        <v>5716968</v>
+        <v>5710400</v>
       </c>
       <c r="E322">
-        <v>3854688</v>
+        <v>3861217</v>
       </c>
       <c r="F322">
-        <v>428229</v>
+        <v>428348</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6837,16 +6837,16 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D323">
-        <v>5716964</v>
+        <v>5710397</v>
       </c>
       <c r="E323">
-        <v>3854699</v>
+        <v>3861217</v>
       </c>
       <c r="F323">
-        <v>428230</v>
+        <v>428348</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6857,16 +6857,16 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D324">
-        <v>5716955</v>
+        <v>5710396</v>
       </c>
       <c r="E324">
-        <v>3854710</v>
+        <v>3861220</v>
       </c>
       <c r="F324">
-        <v>428233</v>
+        <v>428349</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6877,16 +6877,16 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D325">
-        <v>5716954</v>
+        <v>5710394</v>
       </c>
       <c r="E325">
-        <v>3854719</v>
+        <v>3861222</v>
       </c>
       <c r="F325">
-        <v>428234</v>
+        <v>428349</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6897,16 +6897,16 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="D326">
-        <v>5716950</v>
+        <v>5710392</v>
       </c>
       <c r="E326">
-        <v>3854724</v>
+        <v>3861226</v>
       </c>
       <c r="F326">
-        <v>428235</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6917,16 +6917,16 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D327">
-        <v>5716948</v>
+        <v>5710390</v>
       </c>
       <c r="E327">
-        <v>3854729</v>
+        <v>3861228</v>
       </c>
       <c r="F327">
-        <v>428236</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6937,16 +6937,16 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D328">
-        <v>5716948</v>
+        <v>5710389</v>
       </c>
       <c r="E328">
-        <v>3854733</v>
+        <v>3861232</v>
       </c>
       <c r="F328">
-        <v>428237</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6957,16 +6957,16 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D329">
-        <v>5716943</v>
+        <v>5710388</v>
       </c>
       <c r="E329">
-        <v>3854743</v>
+        <v>3861235</v>
       </c>
       <c r="F329">
-        <v>428238</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -6977,16 +6977,16 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D330">
-        <v>5716938</v>
+        <v>5710388</v>
       </c>
       <c r="E330">
-        <v>3854750</v>
+        <v>3861235</v>
       </c>
       <c r="F330">
-        <v>428238</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -6997,16 +6997,16 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D331">
-        <v>5716936</v>
+        <v>5710386</v>
       </c>
       <c r="E331">
-        <v>3854755</v>
+        <v>3861237</v>
       </c>
       <c r="F331">
-        <v>428240</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7017,16 +7017,16 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D332">
-        <v>5716933</v>
+        <v>5710384</v>
       </c>
       <c r="E332">
-        <v>3854760</v>
+        <v>3861238</v>
       </c>
       <c r="F332">
-        <v>428241</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7037,16 +7037,16 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D333">
-        <v>5716931</v>
+        <v>5710383</v>
       </c>
       <c r="E333">
-        <v>3854766</v>
+        <v>3861241</v>
       </c>
       <c r="F333">
-        <v>428242</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7057,16 +7057,16 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D334">
-        <v>5716930</v>
+        <v>5710383</v>
       </c>
       <c r="E334">
-        <v>3854771</v>
+        <v>3861243</v>
       </c>
       <c r="F334">
-        <v>428242</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7077,16 +7077,16 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D335">
-        <v>5716929</v>
+        <v>5710383</v>
       </c>
       <c r="E335">
-        <v>3854774</v>
+        <v>3861243</v>
       </c>
       <c r="F335">
-        <v>428243</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7097,16 +7097,16 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D336">
-        <v>5716928</v>
+        <v>5710382</v>
       </c>
       <c r="E336">
-        <v>3854778</v>
+        <v>3861248</v>
       </c>
       <c r="F336">
-        <v>428243</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7117,16 +7117,16 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D337">
-        <v>5716928</v>
+        <v>5710381</v>
       </c>
       <c r="E337">
-        <v>3854782</v>
+        <v>3861250</v>
       </c>
       <c r="F337">
-        <v>428245</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7137,16 +7137,16 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D338">
-        <v>5716927</v>
+        <v>5710381</v>
       </c>
       <c r="E338">
-        <v>3854787</v>
+        <v>3861250</v>
       </c>
       <c r="F338">
-        <v>428245</v>
+        <v>428350</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7157,16 +7157,16 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D339">
-        <v>5716926</v>
+        <v>5710381</v>
       </c>
       <c r="E339">
-        <v>3854791</v>
+        <v>3861252</v>
       </c>
       <c r="F339">
-        <v>428245</v>
+        <v>428351</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7177,16 +7177,16 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D340">
-        <v>5716923</v>
+        <v>5710381</v>
       </c>
       <c r="E340">
-        <v>3854800</v>
+        <v>3861253</v>
       </c>
       <c r="F340">
-        <v>428245</v>
+        <v>428351</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7197,16 +7197,16 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D341">
-        <v>5716923</v>
+        <v>5710381</v>
       </c>
       <c r="E341">
-        <v>3854801</v>
+        <v>3861254</v>
       </c>
       <c r="F341">
-        <v>428245</v>
+        <v>428352</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7217,16 +7217,16 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D342">
-        <v>5716922</v>
+        <v>5710381</v>
       </c>
       <c r="E342">
-        <v>3854804</v>
+        <v>3861255</v>
       </c>
       <c r="F342">
-        <v>428246</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7237,16 +7237,16 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D343">
-        <v>5716921</v>
+        <v>5710381</v>
       </c>
       <c r="E343">
-        <v>3854805</v>
+        <v>3861257</v>
       </c>
       <c r="F343">
-        <v>428247</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7257,16 +7257,16 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D344">
-        <v>5716921</v>
+        <v>5710381</v>
       </c>
       <c r="E344">
-        <v>3854805</v>
+        <v>3861258</v>
       </c>
       <c r="F344">
-        <v>428247</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7277,16 +7277,16 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D345">
-        <v>5716921</v>
+        <v>5710381</v>
       </c>
       <c r="E345">
-        <v>3854810</v>
+        <v>3861259</v>
       </c>
       <c r="F345">
-        <v>428247</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7297,16 +7297,16 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D346">
-        <v>5716920</v>
+        <v>5710381</v>
       </c>
       <c r="E346">
-        <v>3854814</v>
+        <v>3861259</v>
       </c>
       <c r="F346">
-        <v>428248</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7317,16 +7317,16 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D347">
-        <v>5716919</v>
+        <v>5710381</v>
       </c>
       <c r="E347">
-        <v>3854815</v>
+        <v>3861261</v>
       </c>
       <c r="F347">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7337,16 +7337,16 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D348">
-        <v>5716919</v>
+        <v>5710380</v>
       </c>
       <c r="E348">
-        <v>3854818</v>
+        <v>3861263</v>
       </c>
       <c r="F348">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7357,16 +7357,16 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D349">
-        <v>5716919</v>
+        <v>5710379</v>
       </c>
       <c r="E349">
-        <v>3854820</v>
+        <v>3861264</v>
       </c>
       <c r="F349">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7377,16 +7377,16 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D350">
-        <v>5716918</v>
+        <v>5710379</v>
       </c>
       <c r="E350">
-        <v>3854821</v>
+        <v>3861264</v>
       </c>
       <c r="F350">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7397,16 +7397,16 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D351">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E351">
-        <v>3854822</v>
+        <v>3861264</v>
       </c>
       <c r="F351">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7417,16 +7417,16 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D352">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E352">
-        <v>3854823</v>
+        <v>3861265</v>
       </c>
       <c r="F352">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7437,16 +7437,16 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D353">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E353">
-        <v>3854823</v>
+        <v>3861266</v>
       </c>
       <c r="F353">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7457,16 +7457,16 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D354">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E354">
-        <v>3854824</v>
+        <v>3861266</v>
       </c>
       <c r="F354">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7477,16 +7477,16 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D355">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E355">
-        <v>3854825</v>
+        <v>3861266</v>
       </c>
       <c r="F355">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7497,16 +7497,16 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D356">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E356">
-        <v>3854828</v>
+        <v>3861266</v>
       </c>
       <c r="F356">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7517,16 +7517,16 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D357">
-        <v>5716917</v>
+        <v>5710379</v>
       </c>
       <c r="E357">
-        <v>3854828</v>
+        <v>3861266</v>
       </c>
       <c r="F357">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7537,16 +7537,16 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D358">
-        <v>5716917</v>
+        <v>5710378</v>
       </c>
       <c r="E358">
-        <v>3854829</v>
+        <v>3861266</v>
       </c>
       <c r="F358">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7557,16 +7557,16 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D359">
-        <v>5716917</v>
+        <v>5710378</v>
       </c>
       <c r="E359">
-        <v>3854830</v>
+        <v>3861266</v>
       </c>
       <c r="F359">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7577,16 +7577,16 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D360">
-        <v>5716917</v>
+        <v>5710378</v>
       </c>
       <c r="E360">
-        <v>3854830</v>
+        <v>3861266</v>
       </c>
       <c r="F360">
-        <v>428249</v>
+        <v>428353</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7597,16 +7597,456 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361">
-        <v>5716917</v>
+        <v>5710378</v>
       </c>
       <c r="E361">
-        <v>3854830</v>
+        <v>3861266</v>
       </c>
       <c r="F361">
-        <v>428249</v>
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>360</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362">
+        <v>5710378</v>
+      </c>
+      <c r="E362">
+        <v>3861266</v>
+      </c>
+      <c r="F362">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>361</v>
+      </c>
+      <c r="C363">
+        <v>3</v>
+      </c>
+      <c r="D363">
+        <v>5710378</v>
+      </c>
+      <c r="E363">
+        <v>3861266</v>
+      </c>
+      <c r="F363">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>362</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>5710378</v>
+      </c>
+      <c r="E364">
+        <v>3861267</v>
+      </c>
+      <c r="F364">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>363</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>5710378</v>
+      </c>
+      <c r="E365">
+        <v>3861268</v>
+      </c>
+      <c r="F365">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>364</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>5710378</v>
+      </c>
+      <c r="E366">
+        <v>3861268</v>
+      </c>
+      <c r="F366">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>365</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <v>5710377</v>
+      </c>
+      <c r="E367">
+        <v>3861268</v>
+      </c>
+      <c r="F367">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>366</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>5710377</v>
+      </c>
+      <c r="E368">
+        <v>3861268</v>
+      </c>
+      <c r="F368">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>367</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>5710377</v>
+      </c>
+      <c r="E369">
+        <v>3861268</v>
+      </c>
+      <c r="F369">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>368</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370">
+        <v>5710377</v>
+      </c>
+      <c r="E370">
+        <v>3861268</v>
+      </c>
+      <c r="F370">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>369</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>5710377</v>
+      </c>
+      <c r="E371">
+        <v>3861268</v>
+      </c>
+      <c r="F371">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>370</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <v>5710377</v>
+      </c>
+      <c r="E372">
+        <v>3861268</v>
+      </c>
+      <c r="F372">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>371</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <v>5710377</v>
+      </c>
+      <c r="E373">
+        <v>3861268</v>
+      </c>
+      <c r="F373">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>372</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>5710377</v>
+      </c>
+      <c r="E374">
+        <v>3861269</v>
+      </c>
+      <c r="F374">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>373</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>5710377</v>
+      </c>
+      <c r="E375">
+        <v>3861269</v>
+      </c>
+      <c r="F375">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>374</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>5710377</v>
+      </c>
+      <c r="E376">
+        <v>3861269</v>
+      </c>
+      <c r="F376">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>375</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>5710377</v>
+      </c>
+      <c r="E377">
+        <v>3861269</v>
+      </c>
+      <c r="F377">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>376</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>5710377</v>
+      </c>
+      <c r="E378">
+        <v>3861269</v>
+      </c>
+      <c r="F378">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>377</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>5710377</v>
+      </c>
+      <c r="E379">
+        <v>3861269</v>
+      </c>
+      <c r="F379">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>378</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>5710377</v>
+      </c>
+      <c r="E380">
+        <v>3861269</v>
+      </c>
+      <c r="F380">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>379</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>5710377</v>
+      </c>
+      <c r="E381">
+        <v>3861269</v>
+      </c>
+      <c r="F381">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>380</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>5710377</v>
+      </c>
+      <c r="E382">
+        <v>3861269</v>
+      </c>
+      <c r="F382">
+        <v>428353</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>381</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>5710377</v>
+      </c>
+      <c r="E383">
+        <v>3861270</v>
+      </c>
+      <c r="F383">
+        <v>428353</v>
       </c>
     </row>
   </sheetData>
